--- a/pilot-study/report/correlation/effective-participants/CorrMatrixAnalysis.xlsx
+++ b/pilot-study/report/correlation/effective-participants/CorrMatrixAnalysis.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="77">
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -31,7 +31,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>Gains in Skills/Knowledge</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Intrinsic Motivation</t>
@@ -115,22 +115,22 @@
     <t>Prs/T-Eff/I</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation</t>
   </si>
   <si>
     <t>UserID</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group non-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group non-gamified using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group non-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group non-gamified</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group non-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group non-gamified</t>
   </si>
   <si>
     <t>Type</t>
@@ -166,19 +166,22 @@
     <t/>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group ont-gamified using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group ont-gamified</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group ont-gamified</t>
   </si>
   <si>
     <t>ont-gamified</t>
   </si>
   <si>
     <t>Grupo Hélio</t>
+  </si>
+  <si>
+    <t>Grupo Hades</t>
   </si>
   <si>
     <t>Grupo Zeus</t>
@@ -196,58 +199,58 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group Master</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group Master</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group Master</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group Master</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group non-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group non-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group non-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group non-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group non-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group non-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group non-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group non-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group non-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Master</t>
   </si>
 </sst>
 </file>
@@ -7111,22 +7114,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="31">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.2976747763655493</v>
+        <v>-0.20465542576088655</v>
       </c>
       <c r="D6" t="n" s="33">
-        <v>-0.16597733797391606</v>
+        <v>-0.1656415402262673</v>
       </c>
       <c r="E6" t="n" s="34">
-        <v>-0.25996896287654003</v>
+        <v>-0.2050154179929531</v>
       </c>
       <c r="F6" t="n" s="35">
-        <v>0.3481635230511245</v>
+        <v>0.12351649544900388</v>
       </c>
       <c r="G6" t="n" s="36">
-        <v>0.302610077077454</v>
+        <v>0.13634652069066888</v>
       </c>
     </row>
     <row r="7">
@@ -7134,22 +7137,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.2976747763655493</v>
+        <v>-0.20465542576088655</v>
       </c>
       <c r="C7" t="n" s="32">
         <v>1.0</v>
       </c>
       <c r="D7" t="n" s="33">
-        <v>0.8848736336672416</v>
+        <v>0.8819658593674606</v>
       </c>
       <c r="E7" t="n" s="34">
-        <v>0.5677364779974636</v>
+        <v>0.5650272346386237</v>
       </c>
       <c r="F7" t="n" s="35">
-        <v>-0.5960746982333736</v>
+        <v>-0.57769995926223</v>
       </c>
       <c r="G7" t="n" s="36">
-        <v>0.3057815336491922</v>
+        <v>0.3183124656387653</v>
       </c>
     </row>
     <row r="8">
@@ -7157,22 +7160,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="31">
-        <v>-0.16597733797391606</v>
+        <v>-0.1656415402262673</v>
       </c>
       <c r="C8" t="n" s="32">
-        <v>0.8848736336672416</v>
+        <v>0.8819658593674606</v>
       </c>
       <c r="D8" t="n" s="33">
         <v>1.0</v>
       </c>
       <c r="E8" t="n" s="34">
-        <v>0.38282508598685144</v>
+        <v>0.38769264477578264</v>
       </c>
       <c r="F8" t="n" s="35">
-        <v>-0.4759690558084902</v>
+        <v>-0.4633289862718967</v>
       </c>
       <c r="G8" t="n" s="36">
-        <v>0.22997488358075965</v>
+        <v>0.2450312517086932</v>
       </c>
     </row>
     <row r="9">
@@ -7180,22 +7183,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="31">
-        <v>-0.25996896287654003</v>
+        <v>-0.2050154179929531</v>
       </c>
       <c r="C9" t="n" s="32">
-        <v>0.5677364779974636</v>
+        <v>0.5650272346386237</v>
       </c>
       <c r="D9" t="n" s="33">
-        <v>0.38282508598685144</v>
+        <v>0.38769264477578264</v>
       </c>
       <c r="E9" t="n" s="34">
         <v>1.0</v>
       </c>
       <c r="F9" t="n" s="35">
-        <v>-0.4803315203093851</v>
+        <v>-0.46174160338842163</v>
       </c>
       <c r="G9" t="n" s="36">
-        <v>0.051069103731385845</v>
+        <v>0.03808753457135397</v>
       </c>
     </row>
     <row r="10">
@@ -7203,22 +7206,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="31">
-        <v>0.3481635230511245</v>
+        <v>0.12351649544900388</v>
       </c>
       <c r="C10" t="n" s="32">
-        <v>-0.5960746982333736</v>
+        <v>-0.57769995926223</v>
       </c>
       <c r="D10" t="n" s="33">
-        <v>-0.4759690558084902</v>
+        <v>-0.4633289862718967</v>
       </c>
       <c r="E10" t="n" s="34">
-        <v>-0.4803315203093851</v>
+        <v>-0.46174160338842163</v>
       </c>
       <c r="F10" t="n" s="35">
         <v>1.0</v>
       </c>
       <c r="G10" t="n" s="36">
-        <v>0.19365357544791245</v>
+        <v>0.19071274405535438</v>
       </c>
     </row>
     <row r="11">
@@ -7226,19 +7229,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="31">
-        <v>0.302610077077454</v>
+        <v>0.13634652069066888</v>
       </c>
       <c r="C11" t="n" s="32">
-        <v>0.3057815336491922</v>
+        <v>0.3183124656387653</v>
       </c>
       <c r="D11" t="n" s="33">
-        <v>0.22997488358075965</v>
+        <v>0.2450312517086932</v>
       </c>
       <c r="E11" t="n" s="34">
-        <v>0.051069103731385845</v>
+        <v>0.03808753457135397</v>
       </c>
       <c r="F11" t="n" s="35">
-        <v>0.19365357544791245</v>
+        <v>0.19071274405535438</v>
       </c>
       <c r="G11" t="n" s="36">
         <v>1.0</v>
@@ -7284,23 +7287,23 @@
       <c r="A16" t="s" s="50">
         <v>3</v>
       </c>
-      <c r="B16" t="e" s="55">
-        <v>#DIV/0!</v>
+      <c r="B16" t="n" s="55">
+        <v>2.7669693468721044E8</v>
       </c>
       <c r="C16" t="n" s="56">
-        <v>-1.2472398051513438</v>
+        <v>-0.8620622782477486</v>
       </c>
       <c r="D16" t="n" s="57">
-        <v>-0.6732475873225897</v>
+        <v>-0.6925240751125169</v>
       </c>
       <c r="E16" t="n" s="58">
-        <v>-1.0769030378470306</v>
+        <v>-0.8636451308343536</v>
       </c>
       <c r="F16" t="n" s="59">
-        <v>1.485602574794944</v>
+        <v>0.5132013870256162</v>
       </c>
       <c r="G16" t="n" s="60">
-        <v>1.2699842262759016</v>
+        <v>0.5674705971508979</v>
       </c>
     </row>
     <row r="17">
@@ -7308,22 +7311,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="55">
-        <v>-1.2472398051513438</v>
+        <v>-0.8620622782477486</v>
       </c>
       <c r="C17" t="e" s="56">
         <v>#DIV/0!</v>
       </c>
       <c r="D17" t="n" s="57">
-        <v>7.598235109119635</v>
+        <v>7.71554383855984</v>
       </c>
       <c r="E17" t="n" s="58">
-        <v>2.7586459441590296</v>
+        <v>2.8235914598029686</v>
       </c>
       <c r="F17" t="n" s="59">
-        <v>-2.969501461530886</v>
+        <v>-2.9181259239681685</v>
       </c>
       <c r="G17" t="n" s="60">
-        <v>1.2846591180197688</v>
+        <v>1.3844467362178896</v>
       </c>
     </row>
     <row r="18">
@@ -7331,22 +7334,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="55">
-        <v>-0.6732475873225897</v>
+        <v>-0.6925240751125169</v>
       </c>
       <c r="C18" t="n" s="56">
-        <v>7.598235109119635</v>
+        <v>7.71554383855984</v>
       </c>
       <c r="D18" t="e" s="57">
         <v>#DIV/0!</v>
       </c>
       <c r="E18" t="n" s="58">
-        <v>1.6575728425490202</v>
+        <v>1.734125965405383</v>
       </c>
       <c r="F18" t="n" s="59">
-        <v>-2.164819132128929</v>
+        <v>-2.155702742980417</v>
       </c>
       <c r="G18" t="n" s="60">
-        <v>0.9452350819884041</v>
+        <v>1.0420566407229659</v>
       </c>
     </row>
     <row r="19">
@@ -7354,22 +7357,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="55">
-        <v>-1.0769030378470306</v>
+        <v>-0.8636451308343536</v>
       </c>
       <c r="C19" t="n" s="56">
-        <v>2.7586459441590296</v>
+        <v>2.8235914598029686</v>
       </c>
       <c r="D19" t="n" s="57">
-        <v>1.6575728425490202</v>
+        <v>1.734125965405383</v>
       </c>
       <c r="E19" t="e" s="58">
         <v>#DIV/0!</v>
       </c>
       <c r="F19" t="n" s="59">
-        <v>-2.1905763624164383</v>
+        <v>-2.1463115209896695</v>
       </c>
       <c r="G19" t="n" s="60">
-        <v>0.20454331900896774</v>
+        <v>0.15715295720366812</v>
       </c>
     </row>
     <row r="20">
@@ -7377,22 +7380,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="55">
-        <v>1.485602574794944</v>
+        <v>0.5132013870256162</v>
       </c>
       <c r="C20" t="n" s="56">
-        <v>-2.969501461530886</v>
+        <v>-2.9181259239681685</v>
       </c>
       <c r="D20" t="n" s="57">
-        <v>-2.164819132128929</v>
+        <v>-2.155702742980417</v>
       </c>
       <c r="E20" t="n" s="58">
-        <v>-2.1905763624164383</v>
+        <v>-2.1463115209896695</v>
       </c>
       <c r="F20" t="e" s="59">
         <v>#DIV/0!</v>
       </c>
       <c r="G20" t="n" s="60">
-        <v>0.7895607069732817</v>
+        <v>0.8010310006636175</v>
       </c>
     </row>
     <row r="21">
@@ -7400,19 +7403,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="55">
-        <v>1.2699842262759016</v>
+        <v>0.5674705971508979</v>
       </c>
       <c r="C21" t="n" s="56">
-        <v>1.2846591180197688</v>
+        <v>1.3844467362178896</v>
       </c>
       <c r="D21" t="n" s="57">
-        <v>0.9452350819884041</v>
+        <v>1.0420566407229659</v>
       </c>
       <c r="E21" t="n" s="58">
-        <v>0.20454331900896774</v>
+        <v>0.15715295720366812</v>
       </c>
       <c r="F21" t="n" s="59">
-        <v>0.7895607069732817</v>
+        <v>0.8010310006636175</v>
       </c>
       <c r="G21" t="e" s="60">
         <v>#DIV/0!</v>
@@ -7459,7 +7462,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n" s="79">
-        <v>-0.0</v>
+        <v>1.6790920362932426E-134</v>
       </c>
       <c r="C26" t="n" s="80">
         <v>1.0</v>
@@ -7482,19 +7485,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="79">
-        <v>0.23025801780176663</v>
+        <v>0.40065055926566073</v>
       </c>
       <c r="C27" t="n" s="80">
         <v>-0.0</v>
       </c>
       <c r="D27" t="n" s="81">
-        <v>1.6124715228221385E-5</v>
+        <v>8.931296495165206E-6</v>
       </c>
       <c r="E27" t="n" s="82">
-        <v>0.1817820285944647</v>
+        <v>0.1522154250733043</v>
       </c>
       <c r="F27" t="n" s="83">
-        <v>0.1265052368334192</v>
+        <v>0.1342168445149018</v>
       </c>
       <c r="G27" t="n" s="84">
         <v>1.0</v>
@@ -7505,10 +7508,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="79">
-        <v>0.5103982614500114</v>
+        <v>0.49795993087470947</v>
       </c>
       <c r="C28" t="n" s="80">
-        <v>1.074981015214759E-6</v>
+        <v>5.954197663443471E-7</v>
       </c>
       <c r="D28" t="n" s="81">
         <v>-0.0</v>
@@ -7517,7 +7520,7 @@
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="83">
-        <v>0.5236327475462645</v>
+        <v>0.548738698874165</v>
       </c>
       <c r="G28" t="n" s="84">
         <v>1.0</v>
@@ -7528,19 +7531,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="79">
-        <v>0.2974936521784768</v>
+        <v>0.3998043841185184</v>
       </c>
       <c r="C29" t="n" s="80">
-        <v>0.013983232968804977</v>
+        <v>0.011708878851792637</v>
       </c>
       <c r="D29" t="n" s="81">
-        <v>0.11687775560475494</v>
+        <v>0.10099061732797537</v>
       </c>
       <c r="E29" t="n" s="82">
         <v>-0.0</v>
       </c>
       <c r="F29" t="n" s="83">
-        <v>0.5236327475462645</v>
+        <v>0.548738698874165</v>
       </c>
       <c r="G29" t="n" s="84">
         <v>1.0</v>
@@ -7551,16 +7554,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="79">
-        <v>0.15682096103276585</v>
+        <v>0.6144152026824525</v>
       </c>
       <c r="C30" t="n" s="80">
-        <v>0.009036088345244228</v>
+        <v>0.009586917465350129</v>
       </c>
       <c r="D30" t="n" s="81">
-        <v>0.045863547189479666</v>
+        <v>0.04572822490618042</v>
       </c>
       <c r="E30" t="n" s="82">
-        <v>0.04363606229552205</v>
+        <v>0.04657425867564189</v>
       </c>
       <c r="F30" t="n" s="83">
         <v>-0.0</v>
@@ -7574,19 +7577,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="79">
-        <v>0.22224976685596784</v>
+        <v>0.5778123088613784</v>
       </c>
       <c r="C31" t="n" s="80">
-        <v>0.21719981907816263</v>
+        <v>0.18412632509675625</v>
       </c>
       <c r="D31" t="n" s="81">
-        <v>0.3585957352280728</v>
+        <v>0.31197894136341875</v>
       </c>
       <c r="E31" t="n" s="82">
-        <v>0.8405082130414214</v>
+        <v>0.8769756911360279</v>
       </c>
       <c r="F31" t="n" s="83">
-        <v>0.44132894394719835</v>
+        <v>0.43416713037705756</v>
       </c>
       <c r="G31" t="n" s="84">
         <v>-0.0</v>
@@ -7627,16 +7630,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="103">
-        <v>-0.6712566574954071</v>
+        <v>-0.6028279950036577</v>
       </c>
       <c r="C36" t="n" s="104">
-        <v>-0.2976747763655493</v>
+        <v>-0.20465542576088655</v>
       </c>
       <c r="D36" t="n" s="105">
-        <v>0.19650461332984426</v>
+        <v>0.27512884632274426</v>
       </c>
       <c r="E36" t="n" s="106">
-        <v>0.23025801780176663</v>
+        <v>0.40065055926566073</v>
       </c>
     </row>
     <row r="37">
@@ -7644,16 +7647,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="103">
-        <v>-0.5873349159204098</v>
+        <v>-0.5764789026862029</v>
       </c>
       <c r="C37" t="n" s="104">
-        <v>-0.16597733797391606</v>
+        <v>-0.1656415402262673</v>
       </c>
       <c r="D37" t="n" s="105">
-        <v>0.3261673991761731</v>
+        <v>0.3120447195323494</v>
       </c>
       <c r="E37" t="n" s="106">
-        <v>0.5103982614500114</v>
+        <v>0.49795993087470947</v>
       </c>
     </row>
     <row r="38">
@@ -7661,16 +7664,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="103">
-        <v>-0.6481695746714025</v>
+        <v>-0.6030671478458715</v>
       </c>
       <c r="C38" t="n" s="104">
-        <v>-0.25996896287654003</v>
+        <v>-0.2050154179929531</v>
       </c>
       <c r="D38" t="n" s="105">
-        <v>0.2354819638467528</v>
+        <v>0.27478149564494203</v>
       </c>
       <c r="E38" t="n" s="106">
-        <v>0.2974936521784768</v>
+        <v>0.3998043841185184</v>
       </c>
     </row>
     <row r="39">
@@ -7678,16 +7681,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="103">
-        <v>-0.14174714161342356</v>
+        <v>-0.3503481412264633</v>
       </c>
       <c r="C39" t="n" s="104">
-        <v>0.3481635230511245</v>
+        <v>0.12351649544900388</v>
       </c>
       <c r="D39" t="n" s="105">
-        <v>0.7010757464549667</v>
+        <v>0.547035794139385</v>
       </c>
       <c r="E39" t="n" s="106">
-        <v>0.15682096103276585</v>
+        <v>0.6144152026824525</v>
       </c>
     </row>
     <row r="40">
@@ -7695,16 +7698,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="103">
-        <v>-0.1912846072744131</v>
+        <v>-0.33884754535202494</v>
       </c>
       <c r="C40" t="n" s="104">
-        <v>0.302610077077454</v>
+        <v>0.13634652069066888</v>
       </c>
       <c r="D40" t="n" s="105">
-        <v>0.6742258059897209</v>
+        <v>0.5561156453292447</v>
       </c>
       <c r="E40" t="n" s="106">
-        <v>0.22224976685596784</v>
+        <v>0.5778123088613784</v>
       </c>
     </row>
     <row r="41">
@@ -7712,16 +7715,16 @@
         <v>21</v>
       </c>
       <c r="B41" t="n" s="103">
-        <v>0.7122483053672543</v>
+        <v>0.7136377906633878</v>
       </c>
       <c r="C41" t="n" s="104">
-        <v>0.8848736336672416</v>
+        <v>0.8819658593674606</v>
       </c>
       <c r="D41" t="n" s="105">
-        <v>0.9565661324132066</v>
+        <v>0.954003946888803</v>
       </c>
       <c r="E41" t="n" s="106">
-        <v>1.074981015214759E-6</v>
+        <v>5.954197663443471E-7</v>
       </c>
     </row>
     <row r="42">
@@ -7729,16 +7732,16 @@
         <v>22</v>
       </c>
       <c r="B42" t="n" s="103">
-        <v>0.13724425205388038</v>
+        <v>0.14907721726595605</v>
       </c>
       <c r="C42" t="n" s="104">
-        <v>0.5677364779974636</v>
+        <v>0.5650272346386237</v>
       </c>
       <c r="D42" t="n" s="105">
-        <v>0.8178325371072781</v>
+        <v>0.8110803575943593</v>
       </c>
       <c r="E42" t="n" s="106">
-        <v>0.013983232968804977</v>
+        <v>0.011708878851792637</v>
       </c>
     </row>
     <row r="43">
@@ -7746,16 +7749,16 @@
         <v>23</v>
       </c>
       <c r="B43" t="n" s="103">
-        <v>-0.8315368492213091</v>
+        <v>-0.817420749674931</v>
       </c>
       <c r="C43" t="n" s="104">
-        <v>-0.5960746982333736</v>
+        <v>-0.57769995926223</v>
       </c>
       <c r="D43" t="n" s="105">
-        <v>-0.1790255421298706</v>
+        <v>-0.1674215266681429</v>
       </c>
       <c r="E43" t="n" s="106">
-        <v>0.009036088345244228</v>
+        <v>0.009586917465350129</v>
       </c>
     </row>
     <row r="44">
@@ -7763,16 +7766,16 @@
         <v>24</v>
       </c>
       <c r="B44" t="n" s="103">
-        <v>-0.18791538711537242</v>
+        <v>-0.15886569951236337</v>
       </c>
       <c r="C44" t="n" s="104">
-        <v>0.3057815336491922</v>
+        <v>0.3183124656387653</v>
       </c>
       <c r="D44" t="n" s="105">
-        <v>0.6761274810205644</v>
+        <v>0.6749387806047871</v>
       </c>
       <c r="E44" t="n" s="106">
-        <v>0.21719981907816263</v>
+        <v>0.18412632509675625</v>
       </c>
     </row>
     <row r="45">
@@ -7780,16 +7783,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n" s="103">
-        <v>-0.10233533952461109</v>
+        <v>-0.08073325026297486</v>
       </c>
       <c r="C45" t="n" s="104">
-        <v>0.38282508598685144</v>
+        <v>0.38769264477578264</v>
       </c>
       <c r="D45" t="n" s="105">
-        <v>0.7208567400692633</v>
+        <v>0.7158460274879049</v>
       </c>
       <c r="E45" t="n" s="106">
-        <v>0.11687775560475494</v>
+        <v>0.10099061732797537</v>
       </c>
     </row>
     <row r="46">
@@ -7797,16 +7800,16 @@
         <v>26</v>
       </c>
       <c r="B46" t="n" s="103">
-        <v>-0.7714179446266607</v>
+        <v>-0.758015233924074</v>
       </c>
       <c r="C46" t="n" s="104">
-        <v>-0.4759690558084902</v>
+        <v>-0.4633289862718967</v>
       </c>
       <c r="D46" t="n" s="105">
-        <v>-0.011698593356655398</v>
+        <v>-0.011550478834162303</v>
       </c>
       <c r="E46" t="n" s="106">
-        <v>0.045863547189479666</v>
+        <v>0.04572822490618042</v>
       </c>
     </row>
     <row r="47">
@@ -7814,16 +7817,16 @@
         <v>27</v>
       </c>
       <c r="B47" t="n" s="103">
-        <v>-0.26538964971256496</v>
+        <v>-0.23537410649417992</v>
       </c>
       <c r="C47" t="n" s="104">
-        <v>0.22997488358075965</v>
+        <v>0.2450312517086932</v>
       </c>
       <c r="D47" t="n" s="105">
-        <v>0.6292801591644729</v>
+        <v>0.6292120835490707</v>
       </c>
       <c r="E47" t="n" s="106">
-        <v>0.3585957352280728</v>
+        <v>0.31197894136341875</v>
       </c>
     </row>
     <row r="48">
@@ -7831,16 +7834,16 @@
         <v>28</v>
       </c>
       <c r="B48" t="n" s="103">
-        <v>-0.7736979600586502</v>
+        <v>-0.7571548327315728</v>
       </c>
       <c r="C48" t="n" s="104">
-        <v>-0.4803315203093851</v>
+        <v>-0.46174160338842163</v>
       </c>
       <c r="D48" t="n" s="105">
-        <v>-0.017352869494383884</v>
+        <v>-0.009531288655542298</v>
       </c>
       <c r="E48" t="n" s="106">
-        <v>0.04363606229552205</v>
+        <v>0.04657425867564189</v>
       </c>
     </row>
     <row r="49">
@@ -7848,16 +7851,16 @@
         <v>29</v>
       </c>
       <c r="B49" t="n" s="103">
-        <v>-0.4259569054703468</v>
+        <v>-0.42344726756012446</v>
       </c>
       <c r="C49" t="n" s="104">
-        <v>0.051069103731385845</v>
+        <v>0.03808753457135397</v>
       </c>
       <c r="D49" t="n" s="105">
-        <v>0.505877718964798</v>
+        <v>0.48392505690506243</v>
       </c>
       <c r="E49" t="n" s="106">
-        <v>0.8405082130414214</v>
+        <v>0.8769756911360279</v>
       </c>
     </row>
     <row r="50">
@@ -7865,16 +7868,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="n" s="103">
-        <v>-0.30037359284591625</v>
+        <v>-0.28848622902563315</v>
       </c>
       <c r="C50" t="n" s="104">
-        <v>0.19365357544791245</v>
+        <v>0.19071274405535438</v>
       </c>
       <c r="D50" t="n" s="105">
-        <v>0.6057565572492927</v>
+        <v>0.5935101079805617</v>
       </c>
       <c r="E50" t="n" s="106">
-        <v>0.44132894394719835</v>
+        <v>0.43416713037705756</v>
       </c>
     </row>
     <row r="51">
@@ -7914,7 +7917,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="125">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="B55" t="n" s="126">
         <v>-0.43947638936464706</v>
@@ -7934,7 +7937,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="125">
-        <v>1.3875250646034103</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B56" t="n" s="126">
         <v>1.2745279552051365</v>
@@ -7954,19 +7957,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="125">
-        <v>-0.8141377199519093</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B57" t="n" s="126">
-        <v>-0.12829509018000756</v>
+        <v>0.13052634609611735</v>
       </c>
       <c r="C57" t="n" s="127">
-        <v>-2.0523461363759816</v>
+        <v>0.3991938673511699</v>
       </c>
       <c r="D57" t="n" s="128">
-        <v>1.1695914200613888</v>
+        <v>0.5868961120264211</v>
       </c>
       <c r="E57" t="n" s="129">
-        <v>-0.4881027039605077</v>
+        <v>0.3454562466271757</v>
       </c>
       <c r="F57" t="n" s="130">
         <v>-0.11852834836594606</v>
@@ -7974,19 +7977,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="125">
-        <v>-0.46974270057223855</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="B58" t="n" s="126">
-        <v>0.703122893490451</v>
+        <v>-0.12829509018000756</v>
       </c>
       <c r="C58" t="n" s="127">
-        <v>1.2733257983058535</v>
+        <v>-2.0523461363759816</v>
       </c>
       <c r="D58" t="n" s="128">
-        <v>1.169591420061389</v>
+        <v>1.1695914200613888</v>
       </c>
       <c r="E58" t="n" s="129">
-        <v>-0.4881027039605078</v>
+        <v>-0.4881027039605077</v>
       </c>
       <c r="F58" t="n" s="130">
         <v>-0.11852834836594606</v>
@@ -7994,287 +7997,302 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="125">
-        <v>7.321874553929193</v>
+        <v>2.219439428362677</v>
       </c>
       <c r="B59" t="n" s="126">
-        <v>-1.3842690895299066</v>
+        <v>0.703122893490451</v>
       </c>
       <c r="C59" t="n" s="127">
-        <v>-1.785151127196218</v>
+        <v>1.2733257983058535</v>
       </c>
       <c r="D59" t="n" s="128">
-        <v>-0.6224334385907416</v>
+        <v>1.169591420061389</v>
       </c>
       <c r="E59" t="n" s="129">
-        <v>1.1760127697474374</v>
+        <v>-0.4881027039605078</v>
       </c>
       <c r="F59" t="n" s="130">
-        <v>0.04343742692652497</v>
+        <v>-0.11852834836594606</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="125">
-        <v>3.663979512143924</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B60" t="n" s="126">
-        <v>-0.11778394501291262</v>
+        <v>-1.3842690895299066</v>
       </c>
       <c r="C60" t="n" s="127">
-        <v>0.5529952204217218</v>
+        <v>-1.785151127196218</v>
       </c>
       <c r="D60" t="n" s="128">
-        <v>-0.3049889462509944</v>
+        <v>-0.6224334385907416</v>
       </c>
       <c r="E60" t="n" s="129">
-        <v>1.1760127697474376</v>
+        <v>1.1760127697474374</v>
       </c>
       <c r="F60" t="n" s="130">
-        <v>0.693917515693379</v>
+        <v>0.04343742692652497</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="125">
-        <v>2.797689028281252</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="B61" t="n" s="126">
-        <v>0.6825024983778668</v>
+        <v>-0.11778394501291262</v>
       </c>
       <c r="C61" t="n" s="127">
-        <v>2.3995832302498252</v>
+        <v>0.5529952204217218</v>
       </c>
       <c r="D61" t="n" s="128">
-        <v>-0.9590993261663029</v>
+        <v>-0.3049889462509944</v>
       </c>
       <c r="E61" t="n" s="129">
-        <v>-0.8604688235459803</v>
+        <v>1.1760127697474376</v>
       </c>
       <c r="F61" t="n" s="130">
-        <v>0.42905726588196424</v>
+        <v>0.693917515693379</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="125">
-        <v>7.3218745539291925</v>
+        <v>4.683705113859222</v>
       </c>
       <c r="B62" t="n" s="126">
-        <v>-0.739050752349173</v>
+        <v>0.6825024983778668</v>
       </c>
       <c r="C62" t="n" s="127">
-        <v>-1.2851216362168434</v>
+        <v>2.3995832302498252</v>
       </c>
       <c r="D62" t="n" s="128">
-        <v>-0.7308310876243556</v>
+        <v>-0.9590993261663029</v>
       </c>
       <c r="E62" t="n" s="129">
-        <v>0.34545624662717583</v>
+        <v>-0.8604688235459803</v>
       </c>
       <c r="F62" t="n" s="130">
-        <v>-0.5947940389283171</v>
+        <v>0.42905726588196424</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="125">
-        <v>-0.46974270057223944</v>
+        <v>4.773535959183306</v>
       </c>
       <c r="B63" t="n" s="126">
-        <v>0.03228391342182646</v>
+        <v>-0.739050752349173</v>
       </c>
       <c r="C63" t="n" s="127">
-        <v>0.3991938673511698</v>
+        <v>-1.2851216362168434</v>
       </c>
       <c r="D63" t="n" s="128">
-        <v>0.34922612395871094</v>
+        <v>-0.7308310876243556</v>
       </c>
       <c r="E63" t="n" s="129">
-        <v>0.3454562466271758</v>
+        <v>0.34545624662717583</v>
       </c>
       <c r="F63" t="n" s="130">
-        <v>-0.27382809099539945</v>
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="125">
-        <v>7.316986477963063</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="B64" t="n" s="126">
-        <v>1.332166901264101</v>
+        <v>0.03228391342182646</v>
       </c>
       <c r="C64" t="n" s="127">
-        <v>1.4744559960710024</v>
+        <v>0.3991938673511698</v>
       </c>
       <c r="D64" t="n" s="128">
-        <v>1.3724895791459666</v>
+        <v>0.34922612395871094</v>
       </c>
       <c r="E64" t="n" s="129">
-        <v>-1.2956562305351615</v>
+        <v>0.3454562466271758</v>
       </c>
       <c r="F64" t="n" s="130">
-        <v>0.6939175156933789</v>
+        <v>-0.27382809099539945</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="125">
-        <v>7.3218745539291925</v>
+        <v>5.2020388158867235</v>
       </c>
       <c r="B65" t="n" s="126">
-        <v>0.42485437939802007</v>
+        <v>1.332166901264101</v>
       </c>
       <c r="C65" t="n" s="127">
-        <v>0.5529952204217218</v>
+        <v>1.4744559960710024</v>
       </c>
       <c r="D65" t="n" s="128">
-        <v>-0.41039697568847655</v>
+        <v>1.3724895791459666</v>
       </c>
       <c r="E65" t="n" s="129">
-        <v>0.34545624662717583</v>
+        <v>-1.2956562305351615</v>
       </c>
       <c r="F65" t="n" s="130">
-        <v>1.293694677289596</v>
+        <v>0.6939175156933789</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="125">
-        <v>2.797689028281252</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="B66" t="n" s="126">
-        <v>-0.051365907742741024</v>
+        <v>0.42485437939802007</v>
       </c>
       <c r="C66" t="n" s="127">
-        <v>-0.22343251552657223</v>
+        <v>0.5529952204217218</v>
       </c>
       <c r="D66" t="n" s="128">
-        <v>0.12466021952341722</v>
+        <v>-0.41039697568847655</v>
       </c>
       <c r="E66" t="n" s="129">
-        <v>-0.4881027039605078</v>
+        <v>0.34545624662717583</v>
       </c>
       <c r="F66" t="n" s="130">
-        <v>-0.5947940389283171</v>
+        <v>1.293694677289596</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="125">
-        <v>6.6027005735701705</v>
+        <v>5.455703844859729</v>
       </c>
       <c r="B67" t="n" s="126">
-        <v>-0.19461194636708312</v>
+        <v>-0.051365907742741024</v>
       </c>
       <c r="C67" t="n" s="127">
-        <v>0.0020687155690903847</v>
+        <v>-0.22343251552657223</v>
       </c>
       <c r="D67" t="n" s="128">
-        <v>-0.41039697568847644</v>
+        <v>0.12466021952341722</v>
       </c>
       <c r="E67" t="n" s="129">
-        <v>-0.05982173039386193</v>
+        <v>-0.4881027039605078</v>
       </c>
       <c r="F67" t="n" s="130">
-        <v>-0.42994125574280845</v>
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="125">
-        <v>-1.6574667686308642</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B68" t="n" s="126">
-        <v>0.24078051736168585</v>
+        <v>-0.19461194636708312</v>
       </c>
       <c r="C68" t="n" s="127">
-        <v>0.12501694921220619</v>
+        <v>0.0020687155690903847</v>
       </c>
       <c r="D68" t="n" s="128">
-        <v>0.3492261239587109</v>
+        <v>-0.41039697568847644</v>
       </c>
       <c r="E68" t="n" s="129">
-        <v>-0.059821730393861905</v>
+        <v>-0.05982173039386193</v>
       </c>
       <c r="F68" t="n" s="130">
-        <v>0.42905726588196424</v>
+        <v>-0.42994125574280845</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="125">
-        <v>1.3875250646034103</v>
+        <v>2.2194394283626773</v>
       </c>
       <c r="B69" t="n" s="126">
-        <v>-0.016003757563636895</v>
+        <v>0.24078051736168585</v>
       </c>
       <c r="C69" t="n" s="127">
-        <v>-0.6310088518604511</v>
+        <v>0.12501694921220619</v>
       </c>
       <c r="D69" t="n" s="128">
-        <v>-0.8424638447411447</v>
+        <v>0.3492261239587109</v>
       </c>
       <c r="E69" t="n" s="129">
-        <v>0.49281785313896265</v>
+        <v>-0.059821730393861905</v>
       </c>
       <c r="F69" t="n" s="130">
-        <v>1.293694677289596</v>
+        <v>0.42905726588196424</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="125">
-        <v>6.779366035646001</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B70" t="n" s="126">
-        <v>0.5685005755749124</v>
+        <v>-0.016003757563636895</v>
       </c>
       <c r="C70" t="n" s="127">
-        <v>0.894596760964265</v>
+        <v>-0.6310088518604511</v>
       </c>
       <c r="D70" t="n" s="128">
-        <v>0.34922612395871094</v>
+        <v>-0.8424638447411447</v>
       </c>
       <c r="E70" t="n" s="129">
-        <v>-0.3362619016832953</v>
+        <v>0.49281785313896265</v>
       </c>
       <c r="F70" t="n" s="130">
-        <v>0.693917515693379</v>
+        <v>1.293694677289596</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="125">
-        <v>10.249590604752395</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B71" t="n" s="126">
-        <v>0.20490388741018775</v>
+        <v>0.5685005755749124</v>
       </c>
       <c r="C71" t="n" s="127">
-        <v>0.2568859466255362</v>
+        <v>0.894596760964265</v>
       </c>
       <c r="D71" t="n" s="128">
-        <v>0.7141732488095422</v>
+        <v>0.34922612395871094</v>
       </c>
       <c r="E71" t="n" s="129">
-        <v>0.8453611614877061</v>
+        <v>-0.3362619016832953</v>
       </c>
       <c r="F71" t="n" s="130">
-        <v>0.6939175156933789</v>
+        <v>0.693917515693379</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="125">
-        <v>-2.595256584071593</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="B72" t="n" s="126">
-        <v>1.3837694218399965</v>
+        <v>0.20490388741018775</v>
       </c>
       <c r="C72" t="n" s="127">
-        <v>3.1382402906974827</v>
+        <v>0.2568859466255362</v>
       </c>
       <c r="D72" t="n" s="128">
         <v>0.7141732488095422</v>
       </c>
       <c r="E72" t="n" s="129">
+        <v>0.8453611614877061</v>
+      </c>
+      <c r="F72" t="n" s="130">
+        <v>0.6939175156933789</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="125">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B73" t="n" s="126">
+        <v>1.3837694218399965</v>
+      </c>
+      <c r="C73" t="n" s="127">
+        <v>3.1382402906974827</v>
+      </c>
+      <c r="D73" t="n" s="128">
+        <v>0.7141732488095422</v>
+      </c>
+      <c r="E73" t="n" s="129">
         <v>-0.1950989718859835</v>
       </c>
-      <c r="F72" t="n" s="130">
+      <c r="F73" t="n" s="130">
         <v>-0.5947940389283171</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -8283,120 +8301,102 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="134">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="134">
         <v>32</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s" s="148">
+    <row r="77">
+      <c r="A77" t="s" s="148">
         <v>33</v>
       </c>
-      <c r="B76" t="s" s="148">
+      <c r="B77" t="s" s="148">
         <v>3</v>
       </c>
-      <c r="C76" t="s" s="148">
+      <c r="C77" t="s" s="148">
         <v>4</v>
       </c>
-      <c r="D76" t="s" s="148">
+      <c r="D77" t="s" s="148">
         <v>5</v>
       </c>
-      <c r="E76" t="s" s="148">
+      <c r="E77" t="s" s="148">
         <v>6</v>
       </c>
-      <c r="F76" t="s" s="148">
+      <c r="F77" t="s" s="148">
         <v>7</v>
       </c>
-      <c r="G76" t="s" s="148">
+      <c r="G77" t="s" s="148">
         <v>8</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n" s="149">
-        <v>10116.0</v>
-      </c>
-      <c r="B77" t="n" s="150">
-        <v>2.6159320835543496</v>
-      </c>
-      <c r="C77" t="n" s="151">
-        <v>-0.43947638936464706</v>
-      </c>
-      <c r="D77" t="n" s="152">
-        <v>-0.11357294579123278</v>
-      </c>
-      <c r="E77" t="n" s="153">
-        <v>-0.8424638447411447</v>
-      </c>
-      <c r="F77" t="n" s="154">
-        <v>0.2070747279978936</v>
-      </c>
-      <c r="G77" t="n" s="155">
-        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="149">
-        <v>10120.0</v>
+        <v>10116.0</v>
       </c>
       <c r="B78" t="n" s="150">
-        <v>1.3875250646034103</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="C78" t="n" s="151">
-        <v>1.2745279552051365</v>
+        <v>-0.43947638936464706</v>
       </c>
       <c r="D78" t="n" s="152">
-        <v>1.9055652511372148</v>
+        <v>-0.11357294579123278</v>
       </c>
       <c r="E78" t="n" s="153">
-        <v>1.3724895791459666</v>
+        <v>-0.8424638447411447</v>
       </c>
       <c r="F78" t="n" s="154">
-        <v>-0.9288875181075325</v>
+        <v>0.2070747279978936</v>
       </c>
       <c r="G78" t="n" s="155">
-        <v>0.43187671077339407</v>
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="149">
-        <v>10122.0</v>
+        <v>10120.0</v>
       </c>
       <c r="B79" t="n" s="150">
-        <v>-0.8141377199519093</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="C79" t="n" s="151">
-        <v>-0.12829509018000756</v>
+        <v>1.2745279552051365</v>
       </c>
       <c r="D79" t="n" s="152">
-        <v>-2.0523461363759816</v>
+        <v>1.9055652511372148</v>
       </c>
       <c r="E79" t="n" s="153">
-        <v>1.1695914200613888</v>
+        <v>1.3724895791459666</v>
       </c>
       <c r="F79" t="n" s="154">
-        <v>-0.4881027039605077</v>
+        <v>-0.9288875181075325</v>
       </c>
       <c r="G79" t="n" s="155">
-        <v>-0.11852834836594606</v>
+        <v>0.43187671077339407</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="149">
-        <v>10126.0</v>
+        <v>10121.0</v>
       </c>
       <c r="B80" t="n" s="150">
-        <v>-0.46974270057223855</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="C80" t="n" s="151">
-        <v>0.703122893490451</v>
+        <v>0.13052634609611735</v>
       </c>
       <c r="D80" t="n" s="152">
-        <v>1.2733257983058535</v>
+        <v>0.3991938673511699</v>
       </c>
       <c r="E80" t="n" s="153">
-        <v>1.169591420061389</v>
+        <v>0.5868961120264211</v>
       </c>
       <c r="F80" t="n" s="154">
-        <v>-0.4881027039605078</v>
+        <v>0.3454562466271757</v>
       </c>
       <c r="G80" t="n" s="155">
         <v>-0.11852834836594606</v>
@@ -8404,323 +8404,369 @@
     </row>
     <row r="81">
       <c r="A81" t="n" s="149">
-        <v>10129.0</v>
+        <v>10122.0</v>
       </c>
       <c r="B81" t="n" s="150">
-        <v>7.321874553929193</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="C81" t="n" s="151">
-        <v>-1.3842690895299066</v>
+        <v>-0.12829509018000756</v>
       </c>
       <c r="D81" t="n" s="152">
-        <v>-1.785151127196218</v>
+        <v>-2.0523461363759816</v>
       </c>
       <c r="E81" t="n" s="153">
-        <v>-0.6224334385907416</v>
+        <v>1.1695914200613888</v>
       </c>
       <c r="F81" t="n" s="154">
-        <v>1.1760127697474374</v>
+        <v>-0.4881027039605077</v>
       </c>
       <c r="G81" t="n" s="155">
-        <v>0.04343742692652497</v>
+        <v>-0.11852834836594606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="149">
-        <v>10130.0</v>
+        <v>10126.0</v>
       </c>
       <c r="B82" t="n" s="150">
-        <v>3.663979512143924</v>
+        <v>2.219439428362677</v>
       </c>
       <c r="C82" t="n" s="151">
-        <v>-0.11778394501291262</v>
+        <v>0.703122893490451</v>
       </c>
       <c r="D82" t="n" s="152">
-        <v>0.5529952204217218</v>
+        <v>1.2733257983058535</v>
       </c>
       <c r="E82" t="n" s="153">
-        <v>-0.3049889462509944</v>
+        <v>1.169591420061389</v>
       </c>
       <c r="F82" t="n" s="154">
-        <v>1.1760127697474376</v>
+        <v>-0.4881027039605078</v>
       </c>
       <c r="G82" t="n" s="155">
-        <v>0.693917515693379</v>
+        <v>-0.11852834836594606</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="149">
-        <v>10131.0</v>
+        <v>10129.0</v>
       </c>
       <c r="B83" t="n" s="150">
-        <v>2.797689028281252</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="C83" t="n" s="151">
-        <v>0.6825024983778668</v>
+        <v>-1.3842690895299066</v>
       </c>
       <c r="D83" t="n" s="152">
-        <v>2.3995832302498252</v>
+        <v>-1.785151127196218</v>
       </c>
       <c r="E83" t="n" s="153">
-        <v>-0.9590993261663029</v>
+        <v>-0.6224334385907416</v>
       </c>
       <c r="F83" t="n" s="154">
-        <v>-0.8604688235459803</v>
+        <v>1.1760127697474374</v>
       </c>
       <c r="G83" t="n" s="155">
-        <v>0.42905726588196424</v>
+        <v>0.04343742692652497</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="149">
-        <v>10134.0</v>
+        <v>10130.0</v>
       </c>
       <c r="B84" t="n" s="150">
-        <v>7.3218745539291925</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="C84" t="n" s="151">
-        <v>-0.739050752349173</v>
+        <v>-0.11778394501291262</v>
       </c>
       <c r="D84" t="n" s="152">
-        <v>-1.2851216362168434</v>
+        <v>0.5529952204217218</v>
       </c>
       <c r="E84" t="n" s="153">
-        <v>-0.7308310876243556</v>
+        <v>-0.3049889462509944</v>
       </c>
       <c r="F84" t="n" s="154">
-        <v>0.34545624662717583</v>
+        <v>1.1760127697474376</v>
       </c>
       <c r="G84" t="n" s="155">
-        <v>-0.5947940389283171</v>
+        <v>0.693917515693379</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="149">
-        <v>10135.0</v>
+        <v>10131.0</v>
       </c>
       <c r="B85" t="n" s="150">
-        <v>-0.46974270057223944</v>
+        <v>4.683705113859222</v>
       </c>
       <c r="C85" t="n" s="151">
-        <v>0.03228391342182646</v>
+        <v>0.6825024983778668</v>
       </c>
       <c r="D85" t="n" s="152">
-        <v>0.3991938673511698</v>
+        <v>2.3995832302498252</v>
       </c>
       <c r="E85" t="n" s="153">
-        <v>0.34922612395871094</v>
+        <v>-0.9590993261663029</v>
       </c>
       <c r="F85" t="n" s="154">
-        <v>0.3454562466271758</v>
+        <v>-0.8604688235459803</v>
       </c>
       <c r="G85" t="n" s="155">
-        <v>-0.27382809099539945</v>
+        <v>0.42905726588196424</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="149">
-        <v>10137.0</v>
+        <v>10134.0</v>
       </c>
       <c r="B86" t="n" s="150">
-        <v>7.316986477963063</v>
+        <v>4.773535959183306</v>
       </c>
       <c r="C86" t="n" s="151">
-        <v>1.332166901264101</v>
+        <v>-0.739050752349173</v>
       </c>
       <c r="D86" t="n" s="152">
-        <v>1.4744559960710024</v>
+        <v>-1.2851216362168434</v>
       </c>
       <c r="E86" t="n" s="153">
-        <v>1.3724895791459666</v>
+        <v>-0.7308310876243556</v>
       </c>
       <c r="F86" t="n" s="154">
-        <v>-1.2956562305351615</v>
+        <v>0.34545624662717583</v>
       </c>
       <c r="G86" t="n" s="155">
-        <v>0.6939175156933789</v>
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="149">
-        <v>10138.0</v>
+        <v>10135.0</v>
       </c>
       <c r="B87" t="n" s="150">
-        <v>7.3218745539291925</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="C87" t="n" s="151">
-        <v>0.42485437939802007</v>
+        <v>0.03228391342182646</v>
       </c>
       <c r="D87" t="n" s="152">
-        <v>0.5529952204217218</v>
+        <v>0.3991938673511698</v>
       </c>
       <c r="E87" t="n" s="153">
-        <v>-0.41039697568847655</v>
+        <v>0.34922612395871094</v>
       </c>
       <c r="F87" t="n" s="154">
-        <v>0.34545624662717583</v>
+        <v>0.3454562466271758</v>
       </c>
       <c r="G87" t="n" s="155">
-        <v>1.293694677289596</v>
+        <v>-0.27382809099539945</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="149">
-        <v>10139.0</v>
+        <v>10137.0</v>
       </c>
       <c r="B88" t="n" s="150">
-        <v>2.797689028281252</v>
+        <v>5.2020388158867235</v>
       </c>
       <c r="C88" t="n" s="151">
-        <v>-0.051365907742741024</v>
+        <v>1.332166901264101</v>
       </c>
       <c r="D88" t="n" s="152">
-        <v>-0.22343251552657223</v>
+        <v>1.4744559960710024</v>
       </c>
       <c r="E88" t="n" s="153">
-        <v>0.12466021952341722</v>
+        <v>1.3724895791459666</v>
       </c>
       <c r="F88" t="n" s="154">
-        <v>-0.4881027039605078</v>
+        <v>-1.2956562305351615</v>
       </c>
       <c r="G88" t="n" s="155">
-        <v>-0.5947940389283171</v>
+        <v>0.6939175156933789</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="149">
-        <v>10141.0</v>
+        <v>10138.0</v>
       </c>
       <c r="B89" t="n" s="150">
-        <v>6.6027005735701705</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="C89" t="n" s="151">
-        <v>-0.19461194636708312</v>
+        <v>0.42485437939802007</v>
       </c>
       <c r="D89" t="n" s="152">
-        <v>0.0020687155690903847</v>
+        <v>0.5529952204217218</v>
       </c>
       <c r="E89" t="n" s="153">
-        <v>-0.41039697568847644</v>
+        <v>-0.41039697568847655</v>
       </c>
       <c r="F89" t="n" s="154">
-        <v>-0.05982173039386193</v>
+        <v>0.34545624662717583</v>
       </c>
       <c r="G89" t="n" s="155">
-        <v>-0.42994125574280845</v>
+        <v>1.293694677289596</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="149">
-        <v>10143.0</v>
+        <v>10139.0</v>
       </c>
       <c r="B90" t="n" s="150">
-        <v>-1.6574667686308642</v>
+        <v>5.455703844859729</v>
       </c>
       <c r="C90" t="n" s="151">
-        <v>0.24078051736168585</v>
+        <v>-0.051365907742741024</v>
       </c>
       <c r="D90" t="n" s="152">
-        <v>0.12501694921220619</v>
+        <v>-0.22343251552657223</v>
       </c>
       <c r="E90" t="n" s="153">
-        <v>0.3492261239587109</v>
+        <v>0.12466021952341722</v>
       </c>
       <c r="F90" t="n" s="154">
-        <v>-0.059821730393861905</v>
+        <v>-0.4881027039605078</v>
       </c>
       <c r="G90" t="n" s="155">
-        <v>0.42905726588196424</v>
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n" s="149">
-        <v>10145.0</v>
+        <v>10141.0</v>
       </c>
       <c r="B91" t="n" s="150">
-        <v>1.3875250646034103</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="C91" t="n" s="151">
-        <v>-0.016003757563636895</v>
+        <v>-0.19461194636708312</v>
       </c>
       <c r="D91" t="n" s="152">
-        <v>-0.6310088518604511</v>
+        <v>0.0020687155690903847</v>
       </c>
       <c r="E91" t="n" s="153">
-        <v>-0.8424638447411447</v>
+        <v>-0.41039697568847644</v>
       </c>
       <c r="F91" t="n" s="154">
-        <v>0.49281785313896265</v>
+        <v>-0.05982173039386193</v>
       </c>
       <c r="G91" t="n" s="155">
-        <v>1.293694677289596</v>
+        <v>-0.42994125574280845</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n" s="149">
-        <v>10146.0</v>
+        <v>10143.0</v>
       </c>
       <c r="B92" t="n" s="150">
-        <v>6.779366035646001</v>
+        <v>2.2194394283626773</v>
       </c>
       <c r="C92" t="n" s="151">
-        <v>0.5685005755749124</v>
+        <v>0.24078051736168585</v>
       </c>
       <c r="D92" t="n" s="152">
-        <v>0.894596760964265</v>
+        <v>0.12501694921220619</v>
       </c>
       <c r="E92" t="n" s="153">
-        <v>0.34922612395871094</v>
+        <v>0.3492261239587109</v>
       </c>
       <c r="F92" t="n" s="154">
-        <v>-0.3362619016832953</v>
+        <v>-0.059821730393861905</v>
       </c>
       <c r="G92" t="n" s="155">
-        <v>0.693917515693379</v>
+        <v>0.42905726588196424</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n" s="149">
-        <v>10148.0</v>
+        <v>10145.0</v>
       </c>
       <c r="B93" t="n" s="150">
-        <v>10.249590604752395</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="C93" t="n" s="151">
-        <v>0.20490388741018775</v>
+        <v>-0.016003757563636895</v>
       </c>
       <c r="D93" t="n" s="152">
-        <v>0.2568859466255362</v>
+        <v>-0.6310088518604511</v>
       </c>
       <c r="E93" t="n" s="153">
-        <v>0.7141732488095422</v>
+        <v>-0.8424638447411447</v>
       </c>
       <c r="F93" t="n" s="154">
-        <v>0.8453611614877061</v>
+        <v>0.49281785313896265</v>
       </c>
       <c r="G93" t="n" s="155">
-        <v>0.6939175156933789</v>
+        <v>1.293694677289596</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="149">
+        <v>10146.0</v>
+      </c>
+      <c r="B94" t="n" s="150">
+        <v>4.458156643590752</v>
+      </c>
+      <c r="C94" t="n" s="151">
+        <v>0.5685005755749124</v>
+      </c>
+      <c r="D94" t="n" s="152">
+        <v>0.894596760964265</v>
+      </c>
+      <c r="E94" t="n" s="153">
+        <v>0.34922612395871094</v>
+      </c>
+      <c r="F94" t="n" s="154">
+        <v>-0.3362619016832953</v>
+      </c>
+      <c r="G94" t="n" s="155">
+        <v>0.693917515693379</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n" s="149">
+        <v>10148.0</v>
+      </c>
+      <c r="B95" t="n" s="150">
+        <v>6.387096047687933</v>
+      </c>
+      <c r="C95" t="n" s="151">
+        <v>0.20490388741018775</v>
+      </c>
+      <c r="D95" t="n" s="152">
+        <v>0.2568859466255362</v>
+      </c>
+      <c r="E95" t="n" s="153">
+        <v>0.7141732488095422</v>
+      </c>
+      <c r="F95" t="n" s="154">
+        <v>0.8453611614877061</v>
+      </c>
+      <c r="G95" t="n" s="155">
+        <v>0.6939175156933789</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n" s="149">
         <v>10152.0</v>
       </c>
-      <c r="B94" t="n" s="150">
-        <v>-2.595256584071593</v>
-      </c>
-      <c r="C94" t="n" s="151">
+      <c r="B96" t="n" s="150">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="C96" t="n" s="151">
         <v>1.3837694218399965</v>
       </c>
-      <c r="D94" t="n" s="152">
+      <c r="D96" t="n" s="152">
         <v>3.1382402906974827</v>
       </c>
-      <c r="E94" t="n" s="153">
+      <c r="E96" t="n" s="153">
         <v>0.7141732488095422</v>
       </c>
-      <c r="F94" t="n" s="154">
+      <c r="F96" t="n" s="154">
         <v>-0.1950989718859835</v>
       </c>
-      <c r="G94" t="n" s="155">
+      <c r="G96" t="n" s="155">
         <v>-0.5947940389283171</v>
       </c>
     </row>
@@ -8797,22 +8843,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="186">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="187">
-        <v>-0.17857142857142855</v>
+        <v>0.07207499701564471</v>
       </c>
       <c r="D6" t="n" s="188">
-        <v>0.3571428571428571</v>
+        <v>0.3783937343321347</v>
       </c>
       <c r="E6" t="n" s="189">
-        <v>-0.34551165954032126</v>
+        <v>0.394512015836946</v>
       </c>
       <c r="F6" t="n" s="190">
-        <v>0.46428571428571414</v>
+        <v>0.1801874925391118</v>
       </c>
       <c r="G6" t="n" s="191">
-        <v>0.30631873731649</v>
+        <v>0.11818181818181818</v>
       </c>
     </row>
     <row r="7">
@@ -8820,7 +8866,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="186">
-        <v>-0.17857142857142855</v>
+        <v>0.07207499701564471</v>
       </c>
       <c r="C7" t="n" s="187">
         <v>0.9999999999999998</v>
@@ -8843,7 +8889,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="186">
-        <v>0.3571428571428571</v>
+        <v>0.3783937343321347</v>
       </c>
       <c r="C8" t="n" s="187">
         <v>0.6785714285714284</v>
@@ -8866,7 +8912,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="186">
-        <v>-0.34551165954032126</v>
+        <v>0.394512015836946</v>
       </c>
       <c r="C9" t="n" s="187">
         <v>0.363696483726654</v>
@@ -8889,7 +8935,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="186">
-        <v>0.46428571428571414</v>
+        <v>0.1801874925391118</v>
       </c>
       <c r="C10" t="n" s="187">
         <v>-0.21428571428571422</v>
@@ -8912,7 +8958,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="186">
-        <v>0.30631873731649</v>
+        <v>0.11818181818181818</v>
       </c>
       <c r="C11" t="n" s="187">
         <v>0.3783937343321347</v>
@@ -8970,23 +9016,23 @@
       <c r="A16" t="s" s="205">
         <v>3</v>
       </c>
-      <c r="B16" t="n" s="210">
-        <v>1.0610843071323897E8</v>
+      <c r="B16" t="e" s="210">
+        <v>#DIV/0!</v>
       </c>
       <c r="C16" t="n" s="211">
-        <v>-0.4058206279647283</v>
+        <v>0.16158484017509975</v>
       </c>
       <c r="D16" t="n" s="212">
-        <v>0.8549819600709617</v>
+        <v>0.9140808315341971</v>
       </c>
       <c r="E16" t="n" s="213">
-        <v>-0.8232903404047871</v>
+        <v>0.9600223471296577</v>
       </c>
       <c r="F16" t="n" s="214">
-        <v>1.1721705250676615</v>
+        <v>0.40961596025952024</v>
       </c>
       <c r="G16" t="n" s="215">
-        <v>0.7195384483442471</v>
+        <v>0.2661276087055415</v>
       </c>
     </row>
     <row r="17">
@@ -8994,7 +9040,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="210">
-        <v>-0.4058206279647283</v>
+        <v>0.16158484017509975</v>
       </c>
       <c r="C17" t="n" s="211">
         <v>1.0610843071323897E8</v>
@@ -9017,7 +9063,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="210">
-        <v>0.8549819600709617</v>
+        <v>0.9140808315341971</v>
       </c>
       <c r="C18" t="n" s="211">
         <v>2.0657055646692326</v>
@@ -9040,7 +9086,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="210">
-        <v>-0.8232903404047871</v>
+        <v>0.9600223471296577</v>
       </c>
       <c r="C19" t="n" s="211">
         <v>0.8730378697119728</v>
@@ -9063,7 +9109,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="210">
-        <v>1.1721705250676615</v>
+        <v>0.40961596025952024</v>
       </c>
       <c r="C20" t="n" s="211">
         <v>-0.4905524551257963</v>
@@ -9086,7 +9132,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="210">
-        <v>0.7195384483442471</v>
+        <v>0.2661276087055415</v>
       </c>
       <c r="C21" t="n" s="211">
         <v>0.9140808315341971</v>
@@ -9145,7 +9191,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n" s="234">
-        <v>1.4110889914610554E-39</v>
+        <v>-0.0</v>
       </c>
       <c r="C26" t="n" s="235">
         <v>1.0</v>
@@ -9168,7 +9214,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="234">
-        <v>0.7016579425162729</v>
+        <v>0.8779592508225129</v>
       </c>
       <c r="C27" t="n" s="235">
         <v>1.4110889914610554E-39</v>
@@ -9191,7 +9237,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="234">
-        <v>0.43161135203832823</v>
+        <v>0.4026022019217552</v>
       </c>
       <c r="C28" t="n" s="235">
         <v>0.09375025395983153</v>
@@ -9214,7 +9260,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="234">
-        <v>0.4478162152469321</v>
+        <v>0.3811346026517899</v>
       </c>
       <c r="C29" t="n" s="235">
         <v>0.42258150757499274</v>
@@ -9237,7 +9283,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="234">
-        <v>0.2939341076002519</v>
+        <v>0.6990457740939315</v>
       </c>
       <c r="C30" t="n" s="235">
         <v>0.6445115810207204</v>
@@ -9260,7 +9306,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="234">
-        <v>0.5040270086665881</v>
+        <v>0.8007664794627805</v>
       </c>
       <c r="C31" t="n" s="235">
         <v>0.4026022019217552</v>
@@ -9313,16 +9359,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="258">
-        <v>-0.8211990702177459</v>
+        <v>-0.7200658842362628</v>
       </c>
       <c r="C36" t="n" s="259">
-        <v>-0.17857142857142855</v>
+        <v>0.07207499701564471</v>
       </c>
       <c r="D36" t="n" s="260">
-        <v>0.6637433427183482</v>
+        <v>0.7826532986235473</v>
       </c>
       <c r="E36" t="n" s="261">
-        <v>0.7016579425162729</v>
+        <v>0.8779592508225129</v>
       </c>
     </row>
     <row r="37">
@@ -9330,16 +9376,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="258">
-        <v>-0.5415701888255324</v>
+        <v>-0.5239712877888103</v>
       </c>
       <c r="C37" t="n" s="259">
-        <v>0.3571428571428571</v>
+        <v>0.3783937343321347</v>
       </c>
       <c r="D37" t="n" s="260">
-        <v>0.8748977952347411</v>
+        <v>0.8805398409380425</v>
       </c>
       <c r="E37" t="n" s="261">
-        <v>0.43161135203832823</v>
+        <v>0.4026022019217552</v>
       </c>
     </row>
     <row r="38">
@@ -9347,16 +9393,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="258">
-        <v>-0.871749067685985</v>
+        <v>-0.5100885386223479</v>
       </c>
       <c r="C38" t="n" s="259">
-        <v>-0.34551165954032126</v>
+        <v>0.394512015836946</v>
       </c>
       <c r="D38" t="n" s="260">
-        <v>0.5508801537472927</v>
+        <v>0.884726354325823</v>
       </c>
       <c r="E38" t="n" s="261">
-        <v>0.4478162152469321</v>
+        <v>0.3811346026517899</v>
       </c>
     </row>
     <row r="39">
@@ -9364,16 +9410,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="258">
-        <v>-0.4440152919152137</v>
+        <v>-0.6628081499612626</v>
       </c>
       <c r="C39" t="n" s="259">
-        <v>0.46428571428571414</v>
+        <v>0.1801874925391118</v>
       </c>
       <c r="D39" t="n" s="260">
-        <v>0.9019806209866695</v>
+        <v>0.8217420634213793</v>
       </c>
       <c r="E39" t="n" s="261">
-        <v>0.2939341076002519</v>
+        <v>0.6990457740939315</v>
       </c>
     </row>
     <row r="40">
@@ -9381,16 +9427,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="258">
-        <v>-0.5806906599123512</v>
+        <v>-0.696898728510336</v>
       </c>
       <c r="C40" t="n" s="259">
-        <v>0.30631873731649</v>
+        <v>0.11818181818181818</v>
       </c>
       <c r="D40" t="n" s="260">
-        <v>0.8608090276695592</v>
+        <v>0.8000382978733009</v>
       </c>
       <c r="E40" t="n" s="261">
-        <v>0.5040270086665881</v>
+        <v>0.8007664794627805</v>
       </c>
     </row>
     <row r="41">
@@ -9600,7 +9646,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="280">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="B55" t="n" s="281">
         <v>-0.43947638936464706</v>
@@ -9620,7 +9666,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="280">
-        <v>-0.8141377199519093</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="B56" t="n" s="281">
         <v>-0.12829509018000756</v>
@@ -9640,7 +9686,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="280">
-        <v>7.321874553929193</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B57" t="n" s="281">
         <v>-1.3842690895299066</v>
@@ -9660,7 +9706,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="280">
-        <v>3.663979512143924</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="B58" t="n" s="281">
         <v>-0.11778394501291262</v>
@@ -9680,7 +9726,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="280">
-        <v>-0.46974270057223944</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="B59" t="n" s="281">
         <v>0.03228391342182646</v>
@@ -9700,7 +9746,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="280">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B60" t="n" s="281">
         <v>-0.016003757563636895</v>
@@ -9720,7 +9766,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n" s="280">
-        <v>6.779366035646001</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B61" t="n" s="281">
         <v>0.5685005755749124</v>
@@ -9805,7 +9851,7 @@
         <v>47</v>
       </c>
       <c r="F66" t="n" s="309">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="G66" t="n" s="310">
         <v>-0.43947638936464706</v>
@@ -9840,7 +9886,7 @@
         <v>47</v>
       </c>
       <c r="F67" t="n" s="309">
-        <v>-0.8141377199519093</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="G67" t="n" s="310">
         <v>-0.12829509018000756</v>
@@ -9875,7 +9921,7 @@
         <v>47</v>
       </c>
       <c r="F68" t="n" s="309">
-        <v>7.321874553929193</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="G68" t="n" s="310">
         <v>-1.3842690895299066</v>
@@ -9910,7 +9956,7 @@
         <v>47</v>
       </c>
       <c r="F69" t="n" s="309">
-        <v>3.663979512143924</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="G69" t="n" s="310">
         <v>-0.11778394501291262</v>
@@ -9945,7 +9991,7 @@
         <v>47</v>
       </c>
       <c r="F70" t="n" s="309">
-        <v>-0.46974270057223944</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="G70" t="n" s="310">
         <v>0.03228391342182646</v>
@@ -9980,7 +10026,7 @@
         <v>47</v>
       </c>
       <c r="F71" t="n" s="309">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="G71" t="n" s="310">
         <v>-0.016003757563636895</v>
@@ -10015,7 +10061,7 @@
         <v>47</v>
       </c>
       <c r="F72" t="n" s="309">
-        <v>6.779366035646001</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="G72" t="n" s="310">
         <v>0.5685005755749124</v>
@@ -10109,19 +10155,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="346">
-        <v>-0.5068545991247176</v>
+        <v>-0.4771959199593027</v>
       </c>
       <c r="D6" t="n" s="347">
-        <v>-0.43379447672836197</v>
+        <v>-0.512283855250428</v>
       </c>
       <c r="E6" t="n" s="348">
-        <v>-0.2981651376146789</v>
+        <v>-0.3996478873239437</v>
       </c>
       <c r="F6" t="n" s="349">
-        <v>0.43348623853211005</v>
+        <v>0.4137323943661972</v>
       </c>
       <c r="G6" t="n" s="350">
-        <v>0.4143696149904299</v>
+        <v>0.3215046862242802</v>
       </c>
     </row>
     <row r="7">
@@ -10129,22 +10175,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="345">
-        <v>-0.5068545991247176</v>
+        <v>-0.4771959199593027</v>
       </c>
       <c r="C7" t="n" s="346">
         <v>1.0</v>
       </c>
       <c r="D7" t="n" s="347">
-        <v>0.9181818181818181</v>
+        <v>0.9160839160839161</v>
       </c>
       <c r="E7" t="n" s="348">
-        <v>0.6210110403690234</v>
+        <v>0.6105300740655785</v>
       </c>
       <c r="F7" t="n" s="349">
-        <v>-0.611878525069479</v>
+        <v>-0.5894773128909033</v>
       </c>
       <c r="G7" t="n" s="350">
-        <v>0.2857415935487382</v>
+        <v>0.3646297557266965</v>
       </c>
     </row>
     <row r="8">
@@ -10152,22 +10198,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="345">
-        <v>-0.43379447672836197</v>
+        <v>-0.512283855250428</v>
       </c>
       <c r="C8" t="n" s="346">
-        <v>0.9181818181818181</v>
+        <v>0.9160839160839161</v>
       </c>
       <c r="D8" t="n" s="347">
         <v>1.0</v>
       </c>
       <c r="E8" t="n" s="348">
-        <v>0.3789993849310952</v>
+        <v>0.4070200493770523</v>
       </c>
       <c r="F8" t="n" s="349">
-        <v>-0.5388184026731233</v>
+        <v>-0.5403542034833281</v>
       </c>
       <c r="G8" t="n" s="350">
-        <v>0.2903503289285565</v>
+        <v>0.3221486191371785</v>
       </c>
     </row>
     <row r="9">
@@ -10175,22 +10221,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="345">
-        <v>-0.2981651376146789</v>
+        <v>-0.3996478873239437</v>
       </c>
       <c r="C9" t="n" s="346">
-        <v>0.6210110403690234</v>
+        <v>0.6105300740655785</v>
       </c>
       <c r="D9" t="n" s="347">
-        <v>0.3789993849310952</v>
+        <v>0.4070200493770523</v>
       </c>
       <c r="E9" t="n" s="348">
         <v>1.0</v>
       </c>
       <c r="F9" t="n" s="349">
-        <v>-0.43577981651376146</v>
+        <v>-0.4049295774647888</v>
       </c>
       <c r="G9" t="n" s="350">
-        <v>0.2546405455248452</v>
+        <v>0.25223019582236345</v>
       </c>
     </row>
     <row r="10">
@@ -10198,22 +10244,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="345">
-        <v>0.43348623853211005</v>
+        <v>0.4137323943661972</v>
       </c>
       <c r="C10" t="n" s="346">
-        <v>-0.611878525069479</v>
+        <v>-0.5894773128909033</v>
       </c>
       <c r="D10" t="n" s="347">
-        <v>-0.5388184026731233</v>
+        <v>-0.5403542034833281</v>
       </c>
       <c r="E10" t="n" s="348">
-        <v>-0.43577981651376146</v>
+        <v>-0.4049295774647888</v>
       </c>
       <c r="F10" t="n" s="349">
         <v>1.0</v>
       </c>
       <c r="G10" t="n" s="350">
-        <v>0.004629828100451731</v>
+        <v>0.0017762689846645315</v>
       </c>
     </row>
     <row r="11">
@@ -10221,22 +10267,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="345">
-        <v>0.4143696149904299</v>
+        <v>0.3215046862242802</v>
       </c>
       <c r="C11" t="n" s="346">
-        <v>0.2857415935487382</v>
+        <v>0.3646297557266965</v>
       </c>
       <c r="D11" t="n" s="347">
-        <v>0.2903503289285565</v>
+        <v>0.3221486191371785</v>
       </c>
       <c r="E11" t="n" s="348">
-        <v>0.2546405455248452</v>
+        <v>0.25223019582236345</v>
       </c>
       <c r="F11" t="n" s="349">
-        <v>0.004629828100451731</v>
+        <v>0.0017762689846645315</v>
       </c>
       <c r="G11" t="n" s="350">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -10283,19 +10329,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C16" t="n" s="370">
-        <v>-1.7639305367781704</v>
+        <v>-1.7171498171249473</v>
       </c>
       <c r="D16" t="n" s="371">
-        <v>-1.44435773146858</v>
+        <v>-1.8862986122112608</v>
       </c>
       <c r="E16" t="n" s="372">
-        <v>-0.9371210174191557</v>
+        <v>-1.3786851677688219</v>
       </c>
       <c r="F16" t="n" s="373">
-        <v>1.4430938424290638</v>
+        <v>1.437103254430906</v>
       </c>
       <c r="G16" t="n" s="374">
-        <v>1.3658905389136424</v>
+        <v>1.0736915311087034</v>
       </c>
     </row>
     <row r="17">
@@ -10303,22 +10349,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="369">
-        <v>-1.7639305367781704</v>
+        <v>-1.7171498171249473</v>
       </c>
       <c r="C17" t="e" s="370">
         <v>#DIV/0!</v>
       </c>
       <c r="D17" t="n" s="371">
-        <v>6.953126747297289</v>
+        <v>7.224460006424581</v>
       </c>
       <c r="E17" t="n" s="372">
-        <v>2.376918605696208</v>
+        <v>2.437730427685215</v>
       </c>
       <c r="F17" t="n" s="373">
-        <v>-2.3207933677414214</v>
+        <v>-2.3076574743379763</v>
       </c>
       <c r="G17" t="n" s="374">
-        <v>0.89452027807838</v>
+        <v>1.2383153375995342</v>
       </c>
     </row>
     <row r="18">
@@ -10326,22 +10372,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="369">
-        <v>-1.44435773146858</v>
+        <v>-1.8862986122112608</v>
       </c>
       <c r="C18" t="n" s="370">
-        <v>6.953126747297289</v>
+        <v>7.224460006424581</v>
       </c>
       <c r="D18" t="e" s="371">
         <v>#DIV/0!</v>
       </c>
       <c r="E18" t="n" s="372">
-        <v>1.228659968266528</v>
+        <v>1.4091124590760034</v>
       </c>
       <c r="F18" t="n" s="373">
-        <v>-1.9188189751133138</v>
+        <v>-2.030750593365913</v>
       </c>
       <c r="G18" t="n" s="374">
-        <v>0.9102648144512224</v>
+        <v>1.0760907387155898</v>
       </c>
     </row>
     <row r="19">
@@ -10349,22 +10395,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="369">
-        <v>-0.9371210174191557</v>
+        <v>-1.3786851677688219</v>
       </c>
       <c r="C19" t="n" s="370">
-        <v>2.376918605696208</v>
+        <v>2.437730427685215</v>
       </c>
       <c r="D19" t="n" s="371">
-        <v>1.228659968266528</v>
+        <v>1.4091124590760034</v>
       </c>
       <c r="E19" t="e" s="372">
         <v>#DIV/0!</v>
       </c>
       <c r="F19" t="n" s="373">
-        <v>-1.4525133595295907</v>
+        <v>-1.4004513940201908</v>
       </c>
       <c r="G19" t="n" s="374">
-        <v>0.7899621247992652</v>
+        <v>0.82427291434365</v>
       </c>
     </row>
     <row r="20">
@@ -10372,22 +10418,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="369">
-        <v>1.4430938424290638</v>
+        <v>1.437103254430906</v>
       </c>
       <c r="C20" t="n" s="370">
-        <v>-2.3207933677414214</v>
+        <v>-2.3076574743379763</v>
       </c>
       <c r="D20" t="n" s="371">
-        <v>-1.9188189751133138</v>
+        <v>-2.030750593365913</v>
       </c>
       <c r="E20" t="n" s="372">
-        <v>-1.4525133595295907</v>
+        <v>-1.4004513940201908</v>
       </c>
       <c r="F20" t="e" s="373">
         <v>#DIV/0!</v>
       </c>
       <c r="G20" t="n" s="374">
-        <v>0.01388963316643707</v>
+        <v>0.005617064589950337</v>
       </c>
     </row>
     <row r="21">
@@ -10395,22 +10441,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="369">
-        <v>1.3658905389136424</v>
+        <v>1.0736915311087034</v>
       </c>
       <c r="C21" t="n" s="370">
-        <v>0.89452027807838</v>
+        <v>1.2383153375995342</v>
       </c>
       <c r="D21" t="n" s="371">
-        <v>0.9102648144512224</v>
+        <v>1.0760907387155898</v>
       </c>
       <c r="E21" t="n" s="372">
-        <v>0.7899621247992652</v>
+        <v>0.82427291434365</v>
       </c>
       <c r="F21" t="n" s="373">
-        <v>0.01388963316643707</v>
-      </c>
-      <c r="G21" t="n" s="374">
-        <v>2.0132659199999997E8</v>
+        <v>0.005617064589950337</v>
+      </c>
+      <c r="G21" t="e" s="374">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
@@ -10460,7 +10506,7 @@
         <v>1.0</v>
       </c>
       <c r="D26" t="n" s="395">
-        <v>1.0</v>
+        <v>0.9746045730130751</v>
       </c>
       <c r="E26" t="n" s="396">
         <v>1.0</v>
@@ -10477,19 +10523,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="393">
-        <v>0.1115690992602656</v>
+        <v>0.11670671668806765</v>
       </c>
       <c r="C27" t="n" s="394">
         <v>-0.0</v>
       </c>
       <c r="D27" t="n" s="395">
-        <v>9.992177912033493E-4</v>
+        <v>4.264206802282092E-4</v>
       </c>
       <c r="E27" t="n" s="396">
-        <v>0.5801101778331338</v>
+        <v>0.4897835417096077</v>
       </c>
       <c r="F27" t="n" s="397">
-        <v>0.5905479680549711</v>
+        <v>0.5678563708371955</v>
       </c>
       <c r="G27" t="n" s="398">
         <v>1.0</v>
@@ -10500,10 +10546,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="393">
-        <v>0.18253457044073473</v>
+        <v>0.08860041572846138</v>
       </c>
       <c r="C28" t="n" s="394">
-        <v>6.661451941355662E-5</v>
+        <v>2.842804534854728E-5</v>
       </c>
       <c r="D28" t="n" s="395">
         <v>-0.0</v>
@@ -10512,7 +10558,7 @@
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="397">
-        <v>1.0</v>
+        <v>0.8366052149160665</v>
       </c>
       <c r="G28" t="n" s="398">
         <v>1.0</v>
@@ -10523,13 +10569,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="393">
-        <v>0.37316055072818355</v>
+        <v>0.19804902848063888</v>
       </c>
       <c r="C29" t="n" s="394">
-        <v>0.04143644127379527</v>
+        <v>0.034984538693543406</v>
       </c>
       <c r="D29" t="n" s="395">
-        <v>0.25035692932350667</v>
+        <v>0.18913104997918245</v>
       </c>
       <c r="E29" t="n" s="396">
         <v>-0.0</v>
@@ -10546,16 +10592,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="393">
-        <v>0.18288072679998202</v>
+        <v>0.18123124432453977</v>
       </c>
       <c r="C30" t="n" s="394">
-        <v>0.04542676677345932</v>
+        <v>0.04368125929516889</v>
       </c>
       <c r="D30" t="n" s="395">
-        <v>0.08722133737078629</v>
+        <v>0.06971710124300555</v>
       </c>
       <c r="E30" t="n" s="396">
-        <v>0.18031455870556243</v>
+        <v>0.19163412958123188</v>
       </c>
       <c r="F30" t="n" s="397">
         <v>-0.0</v>
@@ -10569,22 +10615,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="393">
-        <v>0.20512998443241132</v>
+        <v>0.3081859931224367</v>
       </c>
       <c r="C31" t="n" s="394">
-        <v>0.3943361928944551</v>
+        <v>0.24388107371094492</v>
       </c>
       <c r="D31" t="n" s="395">
-        <v>0.38641220454579517</v>
+        <v>0.30716269523866246</v>
       </c>
       <c r="E31" t="n" s="396">
-        <v>0.44986147190303505</v>
+        <v>0.4290064990774948</v>
       </c>
       <c r="F31" t="n" s="397">
-        <v>0.9892210600103238</v>
+        <v>0.9956287314348135</v>
       </c>
       <c r="G31" t="n" s="398">
-        <v>9.370452282996505E-72</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="32">
@@ -10622,16 +10668,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="417">
-        <v>-0.8486868707740405</v>
+        <v>-0.8251257129513911</v>
       </c>
       <c r="C36" t="n" s="418">
-        <v>-0.5068545991247176</v>
+        <v>-0.4771959199593027</v>
       </c>
       <c r="D36" t="n" s="419">
-        <v>0.13365950937010548</v>
+        <v>0.13317840157673302</v>
       </c>
       <c r="E36" t="n" s="420">
-        <v>0.1115690992602656</v>
+        <v>0.11670671668806765</v>
       </c>
     </row>
     <row r="37">
@@ -10639,16 +10685,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="417">
-        <v>-0.8202277906291541</v>
+        <v>-0.8394011011958153</v>
       </c>
       <c r="C37" t="n" s="418">
-        <v>-0.43379447672836197</v>
+        <v>-0.512283855250428</v>
       </c>
       <c r="D37" t="n" s="419">
-        <v>0.224500649985502</v>
+        <v>0.08727734882533793</v>
       </c>
       <c r="E37" t="n" s="420">
-        <v>0.18253457044073473</v>
+        <v>0.08860041572846138</v>
       </c>
     </row>
     <row r="38">
@@ -10656,16 +10702,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="417">
-        <v>-0.7617857657560707</v>
+        <v>-0.7919166377218987</v>
       </c>
       <c r="C38" t="n" s="418">
-        <v>-0.2981651376146789</v>
+        <v>-0.3996478873239437</v>
       </c>
       <c r="D38" t="n" s="419">
-        <v>0.36742887110610983</v>
+        <v>0.22611518486528057</v>
       </c>
       <c r="E38" t="n" s="420">
-        <v>0.37316055072818355</v>
+        <v>0.19804902848063888</v>
       </c>
     </row>
     <row r="39">
@@ -10673,16 +10719,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="417">
-        <v>-0.22486111022884905</v>
+        <v>-0.2100419345948734</v>
       </c>
       <c r="C39" t="n" s="418">
-        <v>0.43348623853211005</v>
+        <v>0.4137323943661972</v>
       </c>
       <c r="D39" t="n" s="419">
-        <v>0.8201035288771582</v>
+        <v>0.7981256969517214</v>
       </c>
       <c r="E39" t="n" s="420">
-        <v>0.18288072679998202</v>
+        <v>0.18123124432453977</v>
       </c>
     </row>
     <row r="40">
@@ -10690,16 +10736,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="417">
-        <v>-0.2468698258983144</v>
+        <v>-0.3095041853967823</v>
       </c>
       <c r="C40" t="n" s="418">
-        <v>0.4143696149904299</v>
+        <v>0.3215046862242802</v>
       </c>
       <c r="D40" t="n" s="419">
-        <v>0.812325016705892</v>
+        <v>0.7559283978620623</v>
       </c>
       <c r="E40" t="n" s="420">
-        <v>0.20512998443241132</v>
+        <v>0.3081859931224367</v>
       </c>
     </row>
     <row r="41">
@@ -10707,16 +10753,16 @@
         <v>21</v>
       </c>
       <c r="B41" t="n" s="417">
-        <v>0.7085992593523492</v>
+        <v>0.7215109254464885</v>
       </c>
       <c r="C41" t="n" s="418">
-        <v>0.9181818181818181</v>
+        <v>0.9160839160839161</v>
       </c>
       <c r="D41" t="n" s="419">
-        <v>0.978889851322838</v>
+        <v>0.9765645130643373</v>
       </c>
       <c r="E41" t="n" s="420">
-        <v>6.661451941355662E-5</v>
+        <v>2.842804534854728E-5</v>
       </c>
     </row>
     <row r="42">
@@ -10724,16 +10770,16 @@
         <v>22</v>
       </c>
       <c r="B42" t="n" s="417">
-        <v>0.03368446826871958</v>
+        <v>0.05638479986247004</v>
       </c>
       <c r="C42" t="n" s="418">
-        <v>0.6210110403690234</v>
+        <v>0.6105300740655785</v>
       </c>
       <c r="D42" t="n" s="419">
-        <v>0.8895156666072384</v>
+        <v>0.8771071921131829</v>
       </c>
       <c r="E42" t="n" s="420">
-        <v>0.04143644127379527</v>
+        <v>0.034984538693543406</v>
       </c>
     </row>
     <row r="43">
@@ -10741,16 +10787,16 @@
         <v>23</v>
       </c>
       <c r="B43" t="n" s="417">
-        <v>-0.8863998922183549</v>
+        <v>-0.8692947814681774</v>
       </c>
       <c r="C43" t="n" s="418">
-        <v>-0.611878525069479</v>
+        <v>-0.5894773128909033</v>
       </c>
       <c r="D43" t="n" s="419">
-        <v>-0.01896441043917576</v>
+        <v>-0.023538979233521516</v>
       </c>
       <c r="E43" t="n" s="420">
-        <v>0.04542676677345932</v>
+        <v>0.04368125929516889</v>
       </c>
     </row>
     <row r="44">
@@ -10758,16 +10804,16 @@
         <v>24</v>
       </c>
       <c r="B44" t="n" s="417">
-        <v>-0.379117697281613</v>
+        <v>-0.2646537249034372</v>
       </c>
       <c r="C44" t="n" s="418">
-        <v>0.2857415935487382</v>
+        <v>0.3646297557266965</v>
       </c>
       <c r="D44" t="n" s="419">
-        <v>0.7560266516175681</v>
+        <v>0.7761193837245421</v>
       </c>
       <c r="E44" t="n" s="420">
-        <v>0.3943361928944551</v>
+        <v>0.24388107371094492</v>
       </c>
     </row>
     <row r="45">
@@ -10775,16 +10821,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n" s="417">
-        <v>-0.2858684722222068</v>
+        <v>-0.21774435488930263</v>
       </c>
       <c r="C45" t="n" s="418">
-        <v>0.3789993849310952</v>
+        <v>0.4070200493770523</v>
       </c>
       <c r="D45" t="n" s="419">
-        <v>0.7975496762243244</v>
+        <v>0.7951767541976277</v>
       </c>
       <c r="E45" t="n" s="420">
-        <v>0.25035692932350667</v>
+        <v>0.18913104997918245</v>
       </c>
     </row>
     <row r="46">
@@ -10792,16 +10838,16 @@
         <v>26</v>
       </c>
       <c r="B46" t="n" s="417">
-        <v>-0.8605449095019843</v>
+        <v>-0.8505054475967515</v>
       </c>
       <c r="C46" t="n" s="418">
-        <v>-0.5388184026731233</v>
+        <v>-0.5403542034833281</v>
       </c>
       <c r="D46" t="n" s="419">
-        <v>0.09021682735366679</v>
+        <v>0.048627202709658396</v>
       </c>
       <c r="E46" t="n" s="420">
-        <v>0.08722133737078629</v>
+        <v>0.06971710124300555</v>
       </c>
     </row>
     <row r="47">
@@ -10809,16 +10855,16 @@
         <v>27</v>
       </c>
       <c r="B47" t="n" s="417">
-        <v>-0.3748061334931142</v>
+        <v>-0.3088545198161963</v>
       </c>
       <c r="C47" t="n" s="418">
-        <v>0.2903503289285565</v>
+        <v>0.3221486191371785</v>
       </c>
       <c r="D47" t="n" s="419">
-        <v>0.75817162757961</v>
+        <v>0.7562360880480018</v>
       </c>
       <c r="E47" t="n" s="420">
-        <v>0.38641220454579517</v>
+        <v>0.30716269523866246</v>
       </c>
     </row>
     <row r="48">
@@ -10826,16 +10872,16 @@
         <v>28</v>
       </c>
       <c r="B48" t="n" s="417">
-        <v>-0.8210272785519536</v>
+        <v>-0.7942545797612356</v>
       </c>
       <c r="C48" t="n" s="418">
-        <v>-0.43577981651376146</v>
+        <v>-0.4049295774647888</v>
       </c>
       <c r="D48" t="n" s="419">
-        <v>0.22217462687045453</v>
+        <v>0.22012738520274827</v>
       </c>
       <c r="E48" t="n" s="420">
-        <v>0.18031455870556243</v>
+        <v>0.19163412958123188</v>
       </c>
     </row>
     <row r="49">
@@ -10843,16 +10889,16 @@
         <v>29</v>
       </c>
       <c r="B49" t="n" s="417">
-        <v>-0.40747770675641337</v>
+        <v>-0.3761162479857923</v>
       </c>
       <c r="C49" t="n" s="418">
-        <v>0.2546405455248452</v>
+        <v>0.25223019582236345</v>
       </c>
       <c r="D49" t="n" s="419">
-        <v>0.7412827632920636</v>
+        <v>0.7216667181108554</v>
       </c>
       <c r="E49" t="n" s="420">
-        <v>0.44986147190303505</v>
+        <v>0.4290064990774948</v>
       </c>
     </row>
     <row r="50">
@@ -10860,16 +10906,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="n" s="417">
-        <v>-0.5969029749840169</v>
+        <v>-0.5727091698404702</v>
       </c>
       <c r="C50" t="n" s="418">
-        <v>0.004629828100451731</v>
+        <v>0.0017762689846645315</v>
       </c>
       <c r="D50" t="n" s="419">
-        <v>0.6028305893279823</v>
+        <v>0.5750916354879303</v>
       </c>
       <c r="E50" t="n" s="420">
-        <v>0.9892210600103238</v>
+        <v>0.9956287314348135</v>
       </c>
     </row>
     <row r="51">
@@ -10909,7 +10955,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="439">
-        <v>1.3875250646034103</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B55" t="n" s="440">
         <v>1.2745279552051365</v>
@@ -10929,19 +10975,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="439">
-        <v>-0.46974270057223855</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B56" t="n" s="440">
-        <v>0.703122893490451</v>
+        <v>0.13052634609611735</v>
       </c>
       <c r="C56" t="n" s="441">
-        <v>1.2733257983058535</v>
+        <v>0.3991938673511699</v>
       </c>
       <c r="D56" t="n" s="442">
-        <v>1.169591420061389</v>
+        <v>0.5868961120264211</v>
       </c>
       <c r="E56" t="n" s="443">
-        <v>-0.4881027039605078</v>
+        <v>0.3454562466271757</v>
       </c>
       <c r="F56" t="n" s="444">
         <v>-0.11852834836594606</v>
@@ -10949,187 +10995,202 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="439">
-        <v>2.797689028281252</v>
+        <v>2.219439428362677</v>
       </c>
       <c r="B57" t="n" s="440">
-        <v>0.6825024983778668</v>
+        <v>0.703122893490451</v>
       </c>
       <c r="C57" t="n" s="441">
-        <v>2.3995832302498252</v>
+        <v>1.2733257983058535</v>
       </c>
       <c r="D57" t="n" s="442">
-        <v>-0.9590993261663029</v>
+        <v>1.169591420061389</v>
       </c>
       <c r="E57" t="n" s="443">
-        <v>-0.8604688235459803</v>
+        <v>-0.4881027039605078</v>
       </c>
       <c r="F57" t="n" s="444">
-        <v>0.42905726588196424</v>
+        <v>-0.11852834836594606</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="439">
-        <v>7.3218745539291925</v>
+        <v>4.683705113859222</v>
       </c>
       <c r="B58" t="n" s="440">
-        <v>-0.739050752349173</v>
+        <v>0.6825024983778668</v>
       </c>
       <c r="C58" t="n" s="441">
-        <v>-1.2851216362168434</v>
+        <v>2.3995832302498252</v>
       </c>
       <c r="D58" t="n" s="442">
-        <v>-0.7308310876243556</v>
+        <v>-0.9590993261663029</v>
       </c>
       <c r="E58" t="n" s="443">
-        <v>0.34545624662717583</v>
+        <v>-0.8604688235459803</v>
       </c>
       <c r="F58" t="n" s="444">
-        <v>-0.5947940389283171</v>
+        <v>0.42905726588196424</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="439">
-        <v>7.316986477963063</v>
+        <v>4.773535959183306</v>
       </c>
       <c r="B59" t="n" s="440">
-        <v>1.332166901264101</v>
+        <v>-0.739050752349173</v>
       </c>
       <c r="C59" t="n" s="441">
-        <v>1.4744559960710024</v>
+        <v>-1.2851216362168434</v>
       </c>
       <c r="D59" t="n" s="442">
-        <v>1.3724895791459666</v>
+        <v>-0.7308310876243556</v>
       </c>
       <c r="E59" t="n" s="443">
-        <v>-1.2956562305351615</v>
+        <v>0.34545624662717583</v>
       </c>
       <c r="F59" t="n" s="444">
-        <v>0.6939175156933789</v>
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="439">
-        <v>7.3218745539291925</v>
+        <v>5.2020388158867235</v>
       </c>
       <c r="B60" t="n" s="440">
-        <v>0.42485437939802007</v>
+        <v>1.332166901264101</v>
       </c>
       <c r="C60" t="n" s="441">
-        <v>0.5529952204217218</v>
+        <v>1.4744559960710024</v>
       </c>
       <c r="D60" t="n" s="442">
-        <v>-0.41039697568847655</v>
+        <v>1.3724895791459666</v>
       </c>
       <c r="E60" t="n" s="443">
-        <v>0.34545624662717583</v>
+        <v>-1.2956562305351615</v>
       </c>
       <c r="F60" t="n" s="444">
-        <v>1.293694677289596</v>
+        <v>0.6939175156933789</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="439">
-        <v>2.797689028281252</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="B61" t="n" s="440">
-        <v>-0.051365907742741024</v>
+        <v>0.42485437939802007</v>
       </c>
       <c r="C61" t="n" s="441">
-        <v>-0.22343251552657223</v>
+        <v>0.5529952204217218</v>
       </c>
       <c r="D61" t="n" s="442">
-        <v>0.12466021952341722</v>
+        <v>-0.41039697568847655</v>
       </c>
       <c r="E61" t="n" s="443">
-        <v>-0.4881027039605078</v>
+        <v>0.34545624662717583</v>
       </c>
       <c r="F61" t="n" s="444">
-        <v>-0.5947940389283171</v>
+        <v>1.293694677289596</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="439">
-        <v>6.6027005735701705</v>
+        <v>5.455703844859729</v>
       </c>
       <c r="B62" t="n" s="440">
-        <v>-0.19461194636708312</v>
+        <v>-0.051365907742741024</v>
       </c>
       <c r="C62" t="n" s="441">
-        <v>0.0020687155690903847</v>
+        <v>-0.22343251552657223</v>
       </c>
       <c r="D62" t="n" s="442">
-        <v>-0.41039697568847644</v>
+        <v>0.12466021952341722</v>
       </c>
       <c r="E62" t="n" s="443">
-        <v>-0.05982173039386193</v>
+        <v>-0.4881027039605078</v>
       </c>
       <c r="F62" t="n" s="444">
-        <v>-0.42994125574280845</v>
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="439">
-        <v>-1.6574667686308642</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B63" t="n" s="440">
-        <v>0.24078051736168585</v>
+        <v>-0.19461194636708312</v>
       </c>
       <c r="C63" t="n" s="441">
-        <v>0.12501694921220619</v>
+        <v>0.0020687155690903847</v>
       </c>
       <c r="D63" t="n" s="442">
-        <v>0.3492261239587109</v>
+        <v>-0.41039697568847644</v>
       </c>
       <c r="E63" t="n" s="443">
-        <v>-0.059821730393861905</v>
+        <v>-0.05982173039386193</v>
       </c>
       <c r="F63" t="n" s="444">
-        <v>0.42905726588196424</v>
+        <v>-0.42994125574280845</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="439">
-        <v>10.249590604752395</v>
+        <v>2.2194394283626773</v>
       </c>
       <c r="B64" t="n" s="440">
-        <v>0.20490388741018775</v>
+        <v>0.24078051736168585</v>
       </c>
       <c r="C64" t="n" s="441">
-        <v>0.2568859466255362</v>
+        <v>0.12501694921220619</v>
       </c>
       <c r="D64" t="n" s="442">
-        <v>0.7141732488095422</v>
+        <v>0.3492261239587109</v>
       </c>
       <c r="E64" t="n" s="443">
-        <v>0.8453611614877061</v>
+        <v>-0.059821730393861905</v>
       </c>
       <c r="F64" t="n" s="444">
-        <v>0.6939175156933789</v>
+        <v>0.42905726588196424</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="439">
-        <v>-2.595256584071593</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="B65" t="n" s="440">
-        <v>1.3837694218399965</v>
+        <v>0.20490388741018775</v>
       </c>
       <c r="C65" t="n" s="441">
-        <v>3.1382402906974827</v>
+        <v>0.2568859466255362</v>
       </c>
       <c r="D65" t="n" s="442">
         <v>0.7141732488095422</v>
       </c>
       <c r="E65" t="n" s="443">
+        <v>0.8453611614877061</v>
+      </c>
+      <c r="F65" t="n" s="444">
+        <v>0.6939175156933789</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="439">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B66" t="n" s="440">
+        <v>1.3837694218399965</v>
+      </c>
+      <c r="C66" t="n" s="441">
+        <v>3.1382402906974827</v>
+      </c>
+      <c r="D66" t="n" s="442">
+        <v>0.7141732488095422</v>
+      </c>
+      <c r="E66" t="n" s="443">
         <v>-0.1950989718859835</v>
       </c>
-      <c r="F65" t="n" s="444">
+      <c r="F66" t="n" s="444">
         <v>-0.5947940389283171</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -11138,83 +11199,53 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="448">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="448">
         <v>50</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="462">
+    <row r="70">
+      <c r="A70" t="s" s="462">
         <v>33</v>
       </c>
-      <c r="B69" t="s" s="462">
+      <c r="B70" t="s" s="462">
         <v>37</v>
       </c>
-      <c r="C69" t="s" s="462">
+      <c r="C70" t="s" s="462">
         <v>38</v>
       </c>
-      <c r="D69" t="s" s="462">
+      <c r="D70" t="s" s="462">
         <v>39</v>
       </c>
-      <c r="E69" t="s" s="462">
+      <c r="E70" t="s" s="462">
         <v>40</v>
       </c>
-      <c r="F69" t="s" s="462">
+      <c r="F70" t="s" s="462">
         <v>3</v>
       </c>
-      <c r="G69" t="s" s="462">
+      <c r="G70" t="s" s="462">
         <v>4</v>
       </c>
-      <c r="H69" t="s" s="462">
+      <c r="H70" t="s" s="462">
         <v>5</v>
       </c>
-      <c r="I69" t="s" s="462">
+      <c r="I70" t="s" s="462">
         <v>6</v>
       </c>
-      <c r="J69" t="s" s="462">
+      <c r="J70" t="s" s="462">
         <v>7</v>
       </c>
-      <c r="K69" t="s" s="462">
+      <c r="K70" t="s" s="462">
         <v>8</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n" s="463">
-        <v>10120.0</v>
-      </c>
-      <c r="B70" t="s" s="464">
-        <v>51</v>
-      </c>
-      <c r="C70" t="s" s="465">
-        <v>52</v>
-      </c>
-      <c r="D70" t="s" s="466">
-        <v>45</v>
-      </c>
-      <c r="E70" t="s" s="467">
-        <v>56</v>
-      </c>
-      <c r="F70" t="n" s="468">
-        <v>1.3875250646034103</v>
-      </c>
-      <c r="G70" t="n" s="469">
-        <v>1.2745279552051365</v>
-      </c>
-      <c r="H70" t="n" s="470">
-        <v>1.9055652511372148</v>
-      </c>
-      <c r="I70" t="n" s="471">
-        <v>1.3724895791459666</v>
-      </c>
-      <c r="J70" t="n" s="472">
-        <v>-0.9288875181075325</v>
-      </c>
-      <c r="K70" t="n" s="473">
-        <v>0.43187671077339407</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="463">
-        <v>10126.0</v>
+        <v>10120.0</v>
       </c>
       <c r="B71" t="s" s="464">
         <v>51</v>
@@ -11223,33 +11254,33 @@
         <v>52</v>
       </c>
       <c r="D71" t="s" s="466">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s" s="467">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" t="n" s="468">
-        <v>-0.46974270057223855</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="G71" t="n" s="469">
-        <v>0.703122893490451</v>
+        <v>1.2745279552051365</v>
       </c>
       <c r="H71" t="n" s="470">
-        <v>1.2733257983058535</v>
+        <v>1.9055652511372148</v>
       </c>
       <c r="I71" t="n" s="471">
-        <v>1.169591420061389</v>
+        <v>1.3724895791459666</v>
       </c>
       <c r="J71" t="n" s="472">
-        <v>-0.4881027039605078</v>
+        <v>-0.9288875181075325</v>
       </c>
       <c r="K71" t="n" s="473">
-        <v>-0.11852834836594606</v>
+        <v>0.43187671077339407</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="463">
-        <v>10131.0</v>
+        <v>10121.0</v>
       </c>
       <c r="B72" t="s" s="464">
         <v>51</v>
@@ -11258,208 +11289,208 @@
         <v>53</v>
       </c>
       <c r="D72" t="s" s="466">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72" t="s" s="467">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" t="n" s="468">
-        <v>2.797689028281252</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="G72" t="n" s="469">
-        <v>0.6825024983778668</v>
+        <v>0.13052634609611735</v>
       </c>
       <c r="H72" t="n" s="470">
-        <v>2.3995832302498252</v>
+        <v>0.3991938673511699</v>
       </c>
       <c r="I72" t="n" s="471">
-        <v>-0.9590993261663029</v>
+        <v>0.5868961120264211</v>
       </c>
       <c r="J72" t="n" s="472">
-        <v>-0.8604688235459803</v>
+        <v>0.3454562466271757</v>
       </c>
       <c r="K72" t="n" s="473">
-        <v>0.42905726588196424</v>
+        <v>-0.11852834836594606</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="463">
-        <v>10134.0</v>
+        <v>10126.0</v>
       </c>
       <c r="B73" t="s" s="464">
         <v>51</v>
       </c>
       <c r="C73" t="s" s="465">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s" s="466">
         <v>46</v>
       </c>
       <c r="E73" t="s" s="467">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" t="n" s="468">
-        <v>7.3218745539291925</v>
+        <v>2.219439428362677</v>
       </c>
       <c r="G73" t="n" s="469">
-        <v>-0.739050752349173</v>
+        <v>0.703122893490451</v>
       </c>
       <c r="H73" t="n" s="470">
-        <v>-1.2851216362168434</v>
+        <v>1.2733257983058535</v>
       </c>
       <c r="I73" t="n" s="471">
-        <v>-0.7308310876243556</v>
+        <v>1.169591420061389</v>
       </c>
       <c r="J73" t="n" s="472">
-        <v>0.34545624662717583</v>
+        <v>-0.4881027039605078</v>
       </c>
       <c r="K73" t="n" s="473">
-        <v>-0.5947940389283171</v>
+        <v>-0.11852834836594606</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="463">
-        <v>10137.0</v>
+        <v>10131.0</v>
       </c>
       <c r="B74" t="s" s="464">
         <v>51</v>
       </c>
       <c r="C74" t="s" s="465">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D74" t="s" s="466">
         <v>46</v>
       </c>
       <c r="E74" t="s" s="467">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74" t="n" s="468">
-        <v>7.316986477963063</v>
+        <v>4.683705113859222</v>
       </c>
       <c r="G74" t="n" s="469">
-        <v>1.332166901264101</v>
+        <v>0.6825024983778668</v>
       </c>
       <c r="H74" t="n" s="470">
-        <v>1.4744559960710024</v>
+        <v>2.3995832302498252</v>
       </c>
       <c r="I74" t="n" s="471">
-        <v>1.3724895791459666</v>
+        <v>-0.9590993261663029</v>
       </c>
       <c r="J74" t="n" s="472">
-        <v>-1.2956562305351615</v>
+        <v>-0.8604688235459803</v>
       </c>
       <c r="K74" t="n" s="473">
-        <v>0.6939175156933789</v>
+        <v>0.42905726588196424</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="463">
-        <v>10138.0</v>
+        <v>10134.0</v>
       </c>
       <c r="B75" t="s" s="464">
         <v>51</v>
       </c>
       <c r="C75" t="s" s="465">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D75" t="s" s="466">
         <v>46</v>
       </c>
       <c r="E75" t="s" s="467">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F75" t="n" s="468">
-        <v>7.3218745539291925</v>
+        <v>4.773535959183306</v>
       </c>
       <c r="G75" t="n" s="469">
-        <v>0.42485437939802007</v>
+        <v>-0.739050752349173</v>
       </c>
       <c r="H75" t="n" s="470">
-        <v>0.5529952204217218</v>
+        <v>-1.2851216362168434</v>
       </c>
       <c r="I75" t="n" s="471">
-        <v>-0.41039697568847655</v>
+        <v>-0.7308310876243556</v>
       </c>
       <c r="J75" t="n" s="472">
         <v>0.34545624662717583</v>
       </c>
       <c r="K75" t="n" s="473">
-        <v>1.293694677289596</v>
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="463">
-        <v>10139.0</v>
+        <v>10137.0</v>
       </c>
       <c r="B76" t="s" s="464">
         <v>51</v>
       </c>
       <c r="C76" t="s" s="465">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D76" t="s" s="466">
         <v>46</v>
       </c>
       <c r="E76" t="s" s="467">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F76" t="n" s="468">
-        <v>2.797689028281252</v>
+        <v>5.2020388158867235</v>
       </c>
       <c r="G76" t="n" s="469">
-        <v>-0.051365907742741024</v>
+        <v>1.332166901264101</v>
       </c>
       <c r="H76" t="n" s="470">
-        <v>-0.22343251552657223</v>
+        <v>1.4744559960710024</v>
       </c>
       <c r="I76" t="n" s="471">
-        <v>0.12466021952341722</v>
+        <v>1.3724895791459666</v>
       </c>
       <c r="J76" t="n" s="472">
-        <v>-0.4881027039605078</v>
+        <v>-1.2956562305351615</v>
       </c>
       <c r="K76" t="n" s="473">
-        <v>-0.5947940389283171</v>
+        <v>0.6939175156933789</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="463">
-        <v>10141.0</v>
+        <v>10138.0</v>
       </c>
       <c r="B77" t="s" s="464">
         <v>51</v>
       </c>
       <c r="C77" t="s" s="465">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D77" t="s" s="466">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E77" t="s" s="467">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F77" t="n" s="468">
-        <v>6.6027005735701705</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="G77" t="n" s="469">
-        <v>-0.19461194636708312</v>
+        <v>0.42485437939802007</v>
       </c>
       <c r="H77" t="n" s="470">
-        <v>0.0020687155690903847</v>
+        <v>0.5529952204217218</v>
       </c>
       <c r="I77" t="n" s="471">
-        <v>-0.41039697568847644</v>
+        <v>-0.41039697568847655</v>
       </c>
       <c r="J77" t="n" s="472">
-        <v>-0.05982173039386193</v>
+        <v>0.34545624662717583</v>
       </c>
       <c r="K77" t="n" s="473">
-        <v>-0.42994125574280845</v>
+        <v>1.293694677289596</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="463">
-        <v>10143.0</v>
+        <v>10139.0</v>
       </c>
       <c r="B78" t="s" s="464">
         <v>51</v>
@@ -11471,65 +11502,65 @@
         <v>46</v>
       </c>
       <c r="E78" t="s" s="467">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F78" t="n" s="468">
-        <v>-1.6574667686308642</v>
+        <v>5.455703844859729</v>
       </c>
       <c r="G78" t="n" s="469">
-        <v>0.24078051736168585</v>
+        <v>-0.051365907742741024</v>
       </c>
       <c r="H78" t="n" s="470">
-        <v>0.12501694921220619</v>
+        <v>-0.22343251552657223</v>
       </c>
       <c r="I78" t="n" s="471">
-        <v>0.3492261239587109</v>
+        <v>0.12466021952341722</v>
       </c>
       <c r="J78" t="n" s="472">
-        <v>-0.059821730393861905</v>
+        <v>-0.4881027039605078</v>
       </c>
       <c r="K78" t="n" s="473">
-        <v>0.42905726588196424</v>
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="463">
-        <v>10148.0</v>
+        <v>10141.0</v>
       </c>
       <c r="B79" t="s" s="464">
         <v>51</v>
       </c>
       <c r="C79" t="s" s="465">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D79" t="s" s="466">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E79" t="s" s="467">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F79" t="n" s="468">
-        <v>10.249590604752395</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="G79" t="n" s="469">
-        <v>0.20490388741018775</v>
+        <v>-0.19461194636708312</v>
       </c>
       <c r="H79" t="n" s="470">
-        <v>0.2568859466255362</v>
+        <v>0.0020687155690903847</v>
       </c>
       <c r="I79" t="n" s="471">
-        <v>0.7141732488095422</v>
+        <v>-0.41039697568847644</v>
       </c>
       <c r="J79" t="n" s="472">
-        <v>0.8453611614877061</v>
+        <v>-0.05982173039386193</v>
       </c>
       <c r="K79" t="n" s="473">
-        <v>0.6939175156933789</v>
+        <v>-0.42994125574280845</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="463">
-        <v>10152.0</v>
+        <v>10143.0</v>
       </c>
       <c r="B80" t="s" s="464">
         <v>51</v>
@@ -11538,27 +11569,97 @@
         <v>55</v>
       </c>
       <c r="D80" t="s" s="466">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s" s="467">
         <v>57</v>
       </c>
       <c r="F80" t="n" s="468">
-        <v>-2.595256584071593</v>
+        <v>2.2194394283626773</v>
       </c>
       <c r="G80" t="n" s="469">
+        <v>0.24078051736168585</v>
+      </c>
+      <c r="H80" t="n" s="470">
+        <v>0.12501694921220619</v>
+      </c>
+      <c r="I80" t="n" s="471">
+        <v>0.3492261239587109</v>
+      </c>
+      <c r="J80" t="n" s="472">
+        <v>-0.059821730393861905</v>
+      </c>
+      <c r="K80" t="n" s="473">
+        <v>0.42905726588196424</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="463">
+        <v>10148.0</v>
+      </c>
+      <c r="B81" t="s" s="464">
+        <v>51</v>
+      </c>
+      <c r="C81" t="s" s="465">
+        <v>55</v>
+      </c>
+      <c r="D81" t="s" s="466">
+        <v>46</v>
+      </c>
+      <c r="E81" t="s" s="467">
+        <v>57</v>
+      </c>
+      <c r="F81" t="n" s="468">
+        <v>6.387096047687933</v>
+      </c>
+      <c r="G81" t="n" s="469">
+        <v>0.20490388741018775</v>
+      </c>
+      <c r="H81" t="n" s="470">
+        <v>0.2568859466255362</v>
+      </c>
+      <c r="I81" t="n" s="471">
+        <v>0.7141732488095422</v>
+      </c>
+      <c r="J81" t="n" s="472">
+        <v>0.8453611614877061</v>
+      </c>
+      <c r="K81" t="n" s="473">
+        <v>0.6939175156933789</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="463">
+        <v>10152.0</v>
+      </c>
+      <c r="B82" t="s" s="464">
+        <v>51</v>
+      </c>
+      <c r="C82" t="s" s="465">
+        <v>56</v>
+      </c>
+      <c r="D82" t="s" s="466">
+        <v>45</v>
+      </c>
+      <c r="E82" t="s" s="467">
+        <v>58</v>
+      </c>
+      <c r="F82" t="n" s="468">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G82" t="n" s="469">
         <v>1.3837694218399965</v>
       </c>
-      <c r="H80" t="n" s="470">
+      <c r="H82" t="n" s="470">
         <v>3.1382402906974827</v>
       </c>
-      <c r="I80" t="n" s="471">
+      <c r="I82" t="n" s="471">
         <v>0.7141732488095422</v>
       </c>
-      <c r="J80" t="n" s="472">
+      <c r="J82" t="n" s="472">
         <v>-0.1950989718859835</v>
       </c>
-      <c r="K80" t="n" s="473">
+      <c r="K82" t="n" s="473">
         <v>-0.5947940389283171</v>
       </c>
     </row>
@@ -11591,7 +11692,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="475">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -11638,19 +11739,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="505">
-        <v>-0.1404964008858967</v>
+        <v>0.03581280806895406</v>
       </c>
       <c r="D6" t="n" s="506">
-        <v>-0.00689655828448187</v>
+        <v>0.06482764787412956</v>
       </c>
       <c r="E6" t="n" s="507">
-        <v>-0.25931059149651825</v>
+        <v>-0.26068990315341467</v>
       </c>
       <c r="F6" t="n" s="508">
-        <v>0.457182320441989</v>
+        <v>0.08701657458563537</v>
       </c>
       <c r="G6" t="n" s="509">
-        <v>0.34258271592447354</v>
+        <v>0.25242936962855944</v>
       </c>
     </row>
     <row r="7">
@@ -11658,7 +11759,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="504">
-        <v>-0.1404964008858967</v>
+        <v>0.03581280806895406</v>
       </c>
       <c r="C7" t="n" s="505">
         <v>1.0</v>
@@ -11681,7 +11782,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="504">
-        <v>-0.00689655828448187</v>
+        <v>0.06482764787412956</v>
       </c>
       <c r="C8" t="n" s="505">
         <v>0.8775799223697636</v>
@@ -11704,7 +11805,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="504">
-        <v>-0.25931059149651825</v>
+        <v>-0.26068990315341467</v>
       </c>
       <c r="C9" t="n" s="505">
         <v>0.41265513591054714</v>
@@ -11727,7 +11828,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="504">
-        <v>0.457182320441989</v>
+        <v>0.08701657458563537</v>
       </c>
       <c r="C10" t="n" s="505">
         <v>-0.6501402080210122</v>
@@ -11750,7 +11851,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="504">
-        <v>0.34258271592447354</v>
+        <v>0.25242936962855944</v>
       </c>
       <c r="C11" t="n" s="505">
         <v>0.4177139999644767</v>
@@ -11812,19 +11913,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C16" t="n" s="529">
-        <v>-0.47064205560696515</v>
+        <v>0.1188538899655069</v>
       </c>
       <c r="D16" t="n" s="530">
-        <v>-0.02287384014960777</v>
+        <v>0.21546221405825025</v>
       </c>
       <c r="E16" t="n" s="531">
-        <v>-0.8904962668127662</v>
+        <v>-0.895577341663096</v>
       </c>
       <c r="F16" t="n" s="532">
-        <v>1.704911465316275</v>
+        <v>0.2897002007224823</v>
       </c>
       <c r="G16" t="n" s="533">
-        <v>1.2094020648004593</v>
+        <v>0.8652338229909944</v>
       </c>
     </row>
     <row r="17">
@@ -11832,7 +11933,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="528">
-        <v>-0.47064205560696515</v>
+        <v>0.1188538899655069</v>
       </c>
       <c r="C17" t="e" s="529">
         <v>#DIV/0!</v>
@@ -11855,7 +11956,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="528">
-        <v>-0.02287384014960777</v>
+        <v>0.21546221405825025</v>
       </c>
       <c r="C18" t="n" s="529">
         <v>6.070961514058487</v>
@@ -11878,7 +11979,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="528">
-        <v>-0.8904962668127662</v>
+        <v>-0.895577341663096</v>
       </c>
       <c r="C19" t="n" s="529">
         <v>1.502515404049008</v>
@@ -11901,7 +12002,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="528">
-        <v>1.704911465316275</v>
+        <v>0.2897002007224823</v>
       </c>
       <c r="C20" t="n" s="529">
         <v>-2.837892422192375</v>
@@ -11924,7 +12025,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="528">
-        <v>1.2094020648004593</v>
+        <v>0.8652338229909944</v>
       </c>
       <c r="C21" t="n" s="529">
         <v>1.5248000077817325</v>
@@ -12006,7 +12107,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="552">
-        <v>0.6470908508048597</v>
+        <v>0.9075338608239047</v>
       </c>
       <c r="C27" t="n" s="553">
         <v>-0.0</v>
@@ -12029,7 +12130,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="552">
-        <v>0.9821605703231696</v>
+        <v>0.8333499301072748</v>
       </c>
       <c r="C28" t="n" s="553">
         <v>8.064080981259636E-5</v>
@@ -12052,7 +12153,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="552">
-        <v>0.39225992712154245</v>
+        <v>0.3896558628199148</v>
       </c>
       <c r="C29" t="n" s="553">
         <v>0.16111679314881558</v>
@@ -12075,7 +12176,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="552">
-        <v>0.11625480962408896</v>
+        <v>0.7774333228335186</v>
       </c>
       <c r="C30" t="n" s="553">
         <v>0.016142619793932455</v>
@@ -12098,7 +12199,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="552">
-        <v>0.2518599052911913</v>
+        <v>0.40538530044589305</v>
       </c>
       <c r="C31" t="n" s="553">
         <v>0.15553108241145938</v>
@@ -12151,16 +12252,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="576">
-        <v>-0.6417991025820341</v>
+        <v>-0.52554267594029</v>
       </c>
       <c r="C36" t="n" s="577">
-        <v>-0.1404964008858967</v>
+        <v>0.03581280806895406</v>
       </c>
       <c r="D36" t="n" s="578">
-        <v>0.4449317108807011</v>
+        <v>0.5754432730486423</v>
       </c>
       <c r="E36" t="n" s="579">
-        <v>0.6470908508048597</v>
+        <v>0.9075338608239047</v>
       </c>
     </row>
     <row r="37">
@@ -12168,16 +12269,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="576">
-        <v>-0.5557699886951428</v>
+        <v>-0.5041660004470109</v>
       </c>
       <c r="C37" t="n" s="577">
-        <v>-0.00689655828448187</v>
+        <v>0.06482764787412956</v>
       </c>
       <c r="D37" t="n" s="578">
-        <v>0.5461641140017272</v>
+        <v>0.5945752676821261</v>
       </c>
       <c r="E37" t="n" s="579">
-        <v>0.9821605703231696</v>
+        <v>0.8333499301072748</v>
       </c>
     </row>
     <row r="38">
@@ -12185,16 +12286,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="576">
-        <v>-0.7089970070353009</v>
+        <v>-0.7097319328056952</v>
       </c>
       <c r="C38" t="n" s="577">
-        <v>-0.25931059149651825</v>
+        <v>-0.26068990315341467</v>
       </c>
       <c r="D38" t="n" s="578">
-        <v>0.3402947776477826</v>
+        <v>0.3389861113821916</v>
       </c>
       <c r="E38" t="n" s="579">
-        <v>0.39225992712154245</v>
+        <v>0.3896558628199148</v>
       </c>
     </row>
     <row r="39">
@@ -12202,16 +12303,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="576">
-        <v>-0.12538841632193531</v>
+        <v>-0.4873338789507677</v>
       </c>
       <c r="C39" t="n" s="577">
-        <v>0.457182320441989</v>
+        <v>0.08701657458563537</v>
       </c>
       <c r="D39" t="n" s="578">
-        <v>0.8053095514229244</v>
+        <v>0.6088124526935998</v>
       </c>
       <c r="E39" t="n" s="579">
-        <v>0.11625480962408896</v>
+        <v>0.7774333228335186</v>
       </c>
     </row>
     <row r="40">
@@ -12219,16 +12320,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="576">
-        <v>-0.2568932534340552</v>
+        <v>-0.3467890421073767</v>
       </c>
       <c r="C40" t="n" s="577">
-        <v>0.34258271592447354</v>
+        <v>0.25242936962855944</v>
       </c>
       <c r="D40" t="n" s="578">
-        <v>0.7516819966640025</v>
+        <v>0.7053158997082938</v>
       </c>
       <c r="E40" t="n" s="579">
-        <v>0.2518599052911913</v>
+        <v>0.40538530044589305</v>
       </c>
     </row>
     <row r="41">
@@ -12413,7 +12514,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="583">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
@@ -12438,7 +12539,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="598">
-        <v>-0.8141377199519093</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="B55" t="n" s="599">
         <v>-0.12829509018000756</v>
@@ -12458,7 +12559,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="598">
-        <v>-0.46974270057223855</v>
+        <v>2.219439428362677</v>
       </c>
       <c r="B56" t="n" s="599">
         <v>0.703122893490451</v>
@@ -12478,7 +12579,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="598">
-        <v>7.321874553929193</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B57" t="n" s="599">
         <v>-1.3842690895299066</v>
@@ -12498,7 +12599,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="598">
-        <v>3.663979512143924</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="B58" t="n" s="599">
         <v>-0.11778394501291262</v>
@@ -12518,7 +12619,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="598">
-        <v>2.797689028281252</v>
+        <v>4.683705113859222</v>
       </c>
       <c r="B59" t="n" s="599">
         <v>0.6825024983778668</v>
@@ -12538,7 +12639,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="598">
-        <v>7.3218745539291925</v>
+        <v>4.773535959183306</v>
       </c>
       <c r="B60" t="n" s="599">
         <v>-0.739050752349173</v>
@@ -12558,7 +12659,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n" s="598">
-        <v>-0.46974270057223944</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="B61" t="n" s="599">
         <v>0.03228391342182646</v>
@@ -12578,7 +12679,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="598">
-        <v>7.316986477963063</v>
+        <v>5.2020388158867235</v>
       </c>
       <c r="B62" t="n" s="599">
         <v>1.332166901264101</v>
@@ -12598,7 +12699,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n" s="598">
-        <v>7.3218745539291925</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="B63" t="n" s="599">
         <v>0.42485437939802007</v>
@@ -12618,7 +12719,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n" s="598">
-        <v>2.797689028281252</v>
+        <v>5.455703844859729</v>
       </c>
       <c r="B64" t="n" s="599">
         <v>-0.051365907742741024</v>
@@ -12638,7 +12739,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n" s="598">
-        <v>-1.6574667686308642</v>
+        <v>2.2194394283626773</v>
       </c>
       <c r="B65" t="n" s="599">
         <v>0.24078051736168585</v>
@@ -12658,7 +12759,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="598">
-        <v>6.779366035646001</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B66" t="n" s="599">
         <v>0.5685005755749124</v>
@@ -12678,7 +12779,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n" s="598">
-        <v>10.249590604752395</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="B67" t="n" s="599">
         <v>0.20490388741018775</v>
@@ -12708,7 +12809,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="607">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71">
@@ -12763,7 +12864,7 @@
         <v>47</v>
       </c>
       <c r="F72" t="n" s="627">
-        <v>-0.8141377199519093</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="G72" t="n" s="628">
         <v>-0.12829509018000756</v>
@@ -12795,10 +12896,10 @@
         <v>46</v>
       </c>
       <c r="E73" t="s" s="626">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" t="n" s="627">
-        <v>-0.46974270057223855</v>
+        <v>2.219439428362677</v>
       </c>
       <c r="G73" t="n" s="628">
         <v>0.703122893490451</v>
@@ -12833,7 +12934,7 @@
         <v>47</v>
       </c>
       <c r="F74" t="n" s="627">
-        <v>7.321874553929193</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="G74" t="n" s="628">
         <v>-1.3842690895299066</v>
@@ -12868,7 +12969,7 @@
         <v>47</v>
       </c>
       <c r="F75" t="n" s="627">
-        <v>3.663979512143924</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="G75" t="n" s="628">
         <v>-0.11778394501291262</v>
@@ -12894,16 +12995,16 @@
         <v>51</v>
       </c>
       <c r="C76" t="s" s="624">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D76" t="s" s="625">
         <v>46</v>
       </c>
       <c r="E76" t="s" s="626">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F76" t="n" s="627">
-        <v>2.797689028281252</v>
+        <v>4.683705113859222</v>
       </c>
       <c r="G76" t="n" s="628">
         <v>0.6825024983778668</v>
@@ -12929,16 +13030,16 @@
         <v>51</v>
       </c>
       <c r="C77" t="s" s="624">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D77" t="s" s="625">
         <v>46</v>
       </c>
       <c r="E77" t="s" s="626">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F77" t="n" s="627">
-        <v>7.3218745539291925</v>
+        <v>4.773535959183306</v>
       </c>
       <c r="G77" t="n" s="628">
         <v>-0.739050752349173</v>
@@ -12973,7 +13074,7 @@
         <v>47</v>
       </c>
       <c r="F78" t="n" s="627">
-        <v>-0.46974270057223944</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="G78" t="n" s="628">
         <v>0.03228391342182646</v>
@@ -12999,16 +13100,16 @@
         <v>51</v>
       </c>
       <c r="C79" t="s" s="624">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D79" t="s" s="625">
         <v>46</v>
       </c>
       <c r="E79" t="s" s="626">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F79" t="n" s="627">
-        <v>7.316986477963063</v>
+        <v>5.2020388158867235</v>
       </c>
       <c r="G79" t="n" s="628">
         <v>1.332166901264101</v>
@@ -13040,10 +13141,10 @@
         <v>46</v>
       </c>
       <c r="E80" t="s" s="626">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F80" t="n" s="627">
-        <v>7.3218745539291925</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="G80" t="n" s="628">
         <v>0.42485437939802007</v>
@@ -13069,16 +13170,16 @@
         <v>51</v>
       </c>
       <c r="C81" t="s" s="624">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D81" t="s" s="625">
         <v>46</v>
       </c>
       <c r="E81" t="s" s="626">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F81" t="n" s="627">
-        <v>2.797689028281252</v>
+        <v>5.455703844859729</v>
       </c>
       <c r="G81" t="n" s="628">
         <v>-0.051365907742741024</v>
@@ -13104,16 +13205,16 @@
         <v>51</v>
       </c>
       <c r="C82" t="s" s="624">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D82" t="s" s="625">
         <v>46</v>
       </c>
       <c r="E82" t="s" s="626">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F82" t="n" s="627">
-        <v>-1.6574667686308642</v>
+        <v>2.2194394283626773</v>
       </c>
       <c r="G82" t="n" s="628">
         <v>0.24078051736168585</v>
@@ -13148,7 +13249,7 @@
         <v>47</v>
       </c>
       <c r="F83" t="n" s="627">
-        <v>6.779366035646001</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="G83" t="n" s="628">
         <v>0.5685005755749124</v>
@@ -13174,16 +13275,16 @@
         <v>51</v>
       </c>
       <c r="C84" t="s" s="624">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D84" t="s" s="625">
         <v>46</v>
       </c>
       <c r="E84" t="s" s="626">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F84" t="n" s="627">
-        <v>10.249590604752395</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="G84" t="n" s="628">
         <v>0.20490388741018775</v>
@@ -13230,7 +13331,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="634">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -13274,22 +13375,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="663">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C6" t="n" s="664">
-        <v>-0.872081599272381</v>
+        <v>-0.8696565534786727</v>
       </c>
       <c r="D6" t="n" s="665">
-        <v>-0.4616902584383194</v>
+        <v>-0.5797710356524485</v>
       </c>
       <c r="E6" t="n" s="666">
-        <v>-0.3947368421052632</v>
+        <v>-0.6470588235294118</v>
       </c>
       <c r="F6" t="n" s="667">
-        <v>0.30779350562554625</v>
+        <v>0.4058397249567139</v>
       </c>
       <c r="G6" t="n" s="668">
-        <v>0.0</v>
+        <v>-0.24999999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -13297,22 +13398,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="663">
-        <v>-0.872081599272381</v>
+        <v>-0.8696565534786727</v>
       </c>
       <c r="C7" t="n" s="664">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n" s="665">
-        <v>0.6999999999999998</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="E7" t="n" s="666">
-        <v>0.7181848464596079</v>
+        <v>0.8406680016960502</v>
       </c>
       <c r="F7" t="n" s="667">
-        <v>-0.5999999999999999</v>
+        <v>-0.4857142857142857</v>
       </c>
       <c r="G7" t="n" s="668">
-        <v>0.10259783520851541</v>
+        <v>0.11595420713048969</v>
       </c>
     </row>
     <row r="8">
@@ -13320,22 +13421,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="663">
-        <v>-0.4616902584383194</v>
+        <v>-0.5797710356524485</v>
       </c>
       <c r="C8" t="n" s="664">
-        <v>0.6999999999999998</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="D8" t="n" s="665">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n" s="666">
-        <v>0.872081599272381</v>
+        <v>0.9276336570439175</v>
       </c>
       <c r="F8" t="n" s="667">
-        <v>-0.8999999999999998</v>
+        <v>-0.7714285714285715</v>
       </c>
       <c r="G8" t="n" s="668">
-        <v>-0.4616902584383194</v>
+        <v>-0.3188740696088467</v>
       </c>
     </row>
     <row r="9">
@@ -13343,22 +13444,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="663">
-        <v>-0.3947368421052632</v>
+        <v>-0.6470588235294118</v>
       </c>
       <c r="C9" t="n" s="664">
-        <v>0.7181848464596079</v>
+        <v>0.8406680016960502</v>
       </c>
       <c r="D9" t="n" s="665">
-        <v>0.872081599272381</v>
+        <v>0.9276336570439175</v>
       </c>
       <c r="E9" t="n" s="666">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F9" t="n" s="667">
-        <v>-0.9746794344808964</v>
+        <v>-0.7826908981308054</v>
       </c>
       <c r="G9" t="n" s="668">
-        <v>-0.026315789473684216</v>
+        <v>0.014705882352941176</v>
       </c>
     </row>
     <row r="10">
@@ -13366,22 +13467,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="663">
-        <v>0.30779350562554625</v>
+        <v>0.4058397249567139</v>
       </c>
       <c r="C10" t="n" s="664">
-        <v>-0.5999999999999999</v>
+        <v>-0.4857142857142857</v>
       </c>
       <c r="D10" t="n" s="665">
-        <v>-0.8999999999999998</v>
+        <v>-0.7714285714285715</v>
       </c>
       <c r="E10" t="n" s="666">
-        <v>-0.9746794344808964</v>
+        <v>-0.7826908981308054</v>
       </c>
       <c r="F10" t="n" s="667">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n" s="668">
-        <v>0.20519567041703082</v>
+        <v>0.3188740696088467</v>
       </c>
     </row>
     <row r="11">
@@ -13389,22 +13490,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="663">
-        <v>0.0</v>
+        <v>-0.24999999999999997</v>
       </c>
       <c r="C11" t="n" s="664">
-        <v>0.10259783520851541</v>
+        <v>0.11595420713048969</v>
       </c>
       <c r="D11" t="n" s="665">
-        <v>-0.4616902584383194</v>
+        <v>-0.3188740696088467</v>
       </c>
       <c r="E11" t="n" s="666">
-        <v>-0.026315789473684216</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="F11" t="n" s="667">
-        <v>0.20519567041703082</v>
+        <v>0.3188740696088467</v>
       </c>
       <c r="G11" t="n" s="668">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -13447,23 +13548,23 @@
       <c r="A16" t="s" s="682">
         <v>3</v>
       </c>
-      <c r="B16" t="e" s="687">
-        <v>#DIV/0!</v>
+      <c r="B16" t="n" s="687">
+        <v>1.3421772799999999E8</v>
       </c>
       <c r="C16" t="n" s="688">
-        <v>-3.086660416610893</v>
+        <v>-3.5233213170882216</v>
       </c>
       <c r="D16" t="n" s="689">
-        <v>-0.9015037604471402</v>
+        <v>-1.4231361339296404</v>
       </c>
       <c r="E16" t="n" s="690">
-        <v>-0.7441320902087378</v>
+        <v>-1.697336849583011</v>
       </c>
       <c r="F16" t="n" s="691">
-        <v>0.5603155257282214</v>
+        <v>0.8881060715737716</v>
       </c>
       <c r="G16" t="n" s="692">
-        <v>0.0</v>
+        <v>-0.5163977794943222</v>
       </c>
     </row>
     <row r="17">
@@ -13471,22 +13572,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="687">
-        <v>-3.086660416610893</v>
-      </c>
-      <c r="C17" t="n" s="688">
-        <v>8.21912370089156E7</v>
+        <v>-3.5233213170882216</v>
+      </c>
+      <c r="C17" t="e" s="688">
+        <v>#DIV/0!</v>
       </c>
       <c r="D17" t="n" s="689">
-        <v>1.6977493752543298</v>
+        <v>2.9598001058630063</v>
       </c>
       <c r="E17" t="n" s="690">
-        <v>1.7876387145933723</v>
+        <v>3.1046688199186967</v>
       </c>
       <c r="F17" t="n" s="691">
-        <v>-1.2990381056766576</v>
+        <v>-1.1113247657830427</v>
       </c>
       <c r="G17" t="n" s="692">
-        <v>0.1786474002526241</v>
+        <v>0.2334833621671116</v>
       </c>
     </row>
     <row r="18">
@@ -13494,22 +13595,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="687">
-        <v>-0.9015037604471402</v>
+        <v>-1.4231361339296404</v>
       </c>
       <c r="C18" t="n" s="688">
-        <v>1.6977493752543298</v>
-      </c>
-      <c r="D18" t="n" s="689">
-        <v>8.21912370089156E7</v>
+        <v>2.9598001058630063</v>
+      </c>
+      <c r="D18" t="e" s="689">
+        <v>#DIV/0!</v>
       </c>
       <c r="E18" t="n" s="690">
-        <v>3.086660416610893</v>
+        <v>4.9673633645205335</v>
       </c>
       <c r="F18" t="n" s="691">
-        <v>-3.576237364075613</v>
+        <v>-2.4246715773614613</v>
       </c>
       <c r="G18" t="n" s="692">
-        <v>-0.9015037604471402</v>
+        <v>-0.6728741252272779</v>
       </c>
     </row>
     <row r="19">
@@ -13517,22 +13618,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="687">
-        <v>-0.7441320902087378</v>
+        <v>-1.697336849583011</v>
       </c>
       <c r="C19" t="n" s="688">
-        <v>1.7876387145933723</v>
+        <v>3.1046688199186967</v>
       </c>
       <c r="D19" t="n" s="689">
-        <v>3.086660416610893</v>
-      </c>
-      <c r="E19" t="e" s="690">
-        <v>#DIV/0!</v>
+        <v>4.9673633645205335</v>
+      </c>
+      <c r="E19" t="n" s="690">
+        <v>1.3421772799999999E8</v>
       </c>
       <c r="F19" t="n" s="691">
-        <v>-7.549834435270754</v>
+        <v>-2.515030737296161</v>
       </c>
       <c r="G19" t="n" s="692">
-        <v>-0.04559607525875532</v>
+        <v>0.029414945559696433</v>
       </c>
     </row>
     <row r="20">
@@ -13540,22 +13641,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="687">
-        <v>0.5603155257282214</v>
+        <v>0.8881060715737716</v>
       </c>
       <c r="C20" t="n" s="688">
-        <v>-1.2990381056766576</v>
+        <v>-1.1113247657830427</v>
       </c>
       <c r="D20" t="n" s="689">
-        <v>-3.576237364075613</v>
+        <v>-2.4246715773614613</v>
       </c>
       <c r="E20" t="n" s="690">
-        <v>-7.549834435270754</v>
-      </c>
-      <c r="F20" t="n" s="691">
-        <v>8.21912370089156E7</v>
+        <v>-2.515030737296161</v>
+      </c>
+      <c r="F20" t="e" s="691">
+        <v>#DIV/0!</v>
       </c>
       <c r="G20" t="n" s="692">
-        <v>0.3631365196012814</v>
+        <v>0.6728741252272779</v>
       </c>
     </row>
     <row r="21">
@@ -13563,22 +13664,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="687">
-        <v>0.0</v>
+        <v>-0.5163977794943222</v>
       </c>
       <c r="C21" t="n" s="688">
-        <v>0.1786474002526241</v>
+        <v>0.2334833621671116</v>
       </c>
       <c r="D21" t="n" s="689">
-        <v>-0.9015037604471402</v>
+        <v>-0.6728741252272779</v>
       </c>
       <c r="E21" t="n" s="690">
-        <v>-0.04559607525875532</v>
+        <v>0.029414945559696433</v>
       </c>
       <c r="F21" t="n" s="691">
-        <v>0.3631365196012814</v>
-      </c>
-      <c r="G21" t="e" s="692">
-        <v>#DIV/0!</v>
+        <v>0.6728741252272779</v>
+      </c>
+      <c r="G21" t="n" s="692">
+        <v>1.3421772799999999E8</v>
       </c>
     </row>
     <row r="22">
@@ -13622,10 +13723,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="n" s="711">
-        <v>-0.0</v>
+        <v>1.8488927466117675E-32</v>
       </c>
       <c r="C26" t="n" s="712">
-        <v>0.7001048304580473</v>
+        <v>0.3412764835996712</v>
       </c>
       <c r="D26" t="n" s="713">
         <v>1.0</v>
@@ -13645,16 +13746,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="711">
-        <v>0.0538542177275421</v>
+        <v>0.0243768916856908</v>
       </c>
       <c r="C27" t="n" s="712">
-        <v>3.971862410081728E-24</v>
+        <v>-0.0</v>
       </c>
       <c r="D27" t="n" s="713">
-        <v>1.0</v>
+        <v>0.4987521865889216</v>
       </c>
       <c r="E27" t="n" s="714">
-        <v>1.0</v>
+        <v>0.46874844698707097</v>
       </c>
       <c r="F27" t="n" s="715">
         <v>1.0</v>
@@ -13668,19 +13769,19 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="711">
-        <v>0.43376615616902797</v>
+        <v>0.22778395671501586</v>
       </c>
       <c r="C28" t="n" s="712">
-        <v>0.18812040437418742</v>
+        <v>0.04156268221574347</v>
       </c>
       <c r="D28" t="n" s="713">
-        <v>3.971862410081728E-24</v>
+        <v>-0.0</v>
       </c>
       <c r="E28" t="n" s="714">
-        <v>0.7001048304580473</v>
+        <v>0.11498766281209741</v>
       </c>
       <c r="F28" t="n" s="715">
-        <v>0.5234050285589829</v>
+        <v>0.7239650145772598</v>
       </c>
       <c r="G28" t="n" s="716">
         <v>1.0</v>
@@ -13691,19 +13792,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="711">
-        <v>0.510781038795847</v>
+        <v>0.1648687156523508</v>
       </c>
       <c r="C29" t="n" s="712">
-        <v>0.17179530490798875</v>
+        <v>0.03605757284515931</v>
       </c>
       <c r="D29" t="n" s="713">
-        <v>0.0538542177275421</v>
+        <v>0.00766584418747316</v>
       </c>
       <c r="E29" t="n" s="714">
-        <v>-0.0</v>
+        <v>1.8488927466117675E-32</v>
       </c>
       <c r="F29" t="n" s="715">
-        <v>0.07227345702297805</v>
+        <v>0.72274232878748</v>
       </c>
       <c r="G29" t="n" s="716">
         <v>1.0</v>
@@ -13714,19 +13815,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="711">
-        <v>0.6143840028103329</v>
+        <v>0.42466250756136437</v>
       </c>
       <c r="C30" t="n" s="712">
-        <v>0.2847569798652939</v>
+        <v>0.328723032069971</v>
       </c>
       <c r="D30" t="n" s="713">
-        <v>0.03738607346849877</v>
+        <v>0.07239650145772598</v>
       </c>
       <c r="E30" t="n" s="714">
-        <v>0.004818230468198537</v>
+        <v>0.06570384807158909</v>
       </c>
       <c r="F30" t="n" s="715">
-        <v>3.971862410081728E-24</v>
+        <v>-0.0</v>
       </c>
       <c r="G30" t="n" s="716">
         <v>1.0</v>
@@ -13737,22 +13838,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="711">
-        <v>1.0</v>
+        <v>0.6328125</v>
       </c>
       <c r="C31" t="n" s="712">
-        <v>0.869597920518565</v>
+        <v>0.826848213385815</v>
       </c>
       <c r="D31" t="n" s="713">
-        <v>0.43376615616902797</v>
+        <v>0.537900560470205</v>
       </c>
       <c r="E31" t="n" s="714">
-        <v>0.9664975638949244</v>
+        <v>0.9779427666395277</v>
       </c>
       <c r="F31" t="n" s="715">
-        <v>0.7405819415910722</v>
+        <v>0.537900560470205</v>
       </c>
       <c r="G31" t="n" s="716">
-        <v>-0.0</v>
+        <v>1.8488927466117675E-32</v>
       </c>
     </row>
     <row r="32">
@@ -13790,16 +13891,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="735">
-        <v>-0.9914885160185373</v>
+        <v>-0.9856008638855045</v>
       </c>
       <c r="C36" t="n" s="736">
-        <v>-0.872081599272381</v>
+        <v>-0.8696565534786727</v>
       </c>
       <c r="D36" t="n" s="737">
-        <v>0.044168229516178936</v>
+        <v>-0.1974549415680596</v>
       </c>
       <c r="E36" t="n" s="738">
-        <v>0.0538542177275421</v>
+        <v>0.0243768916856908</v>
       </c>
     </row>
     <row r="37">
@@ -13807,16 +13908,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="735">
-        <v>-0.9549665265550455</v>
+        <v>-0.9461500532499552</v>
       </c>
       <c r="C37" t="n" s="736">
-        <v>-0.4616902584383194</v>
+        <v>-0.5797710356524485</v>
       </c>
       <c r="D37" t="n" s="737">
-        <v>0.7096341537358801</v>
+        <v>0.43776936157549684</v>
       </c>
       <c r="E37" t="n" s="738">
-        <v>0.43376615616902797</v>
+        <v>0.22778395671501586</v>
       </c>
     </row>
     <row r="38">
@@ -13824,16 +13925,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="735">
-        <v>-0.9471469649151716</v>
+        <v>-0.9563919952798965</v>
       </c>
       <c r="C38" t="n" s="736">
-        <v>-0.3947368421052632</v>
+        <v>-0.6470588235294118</v>
       </c>
       <c r="D38" t="n" s="737">
-        <v>0.7480465748855533</v>
+        <v>0.34641422429888047</v>
       </c>
       <c r="E38" t="n" s="738">
-        <v>0.510781038795847</v>
+        <v>0.1648687156523508</v>
       </c>
     </row>
     <row r="39">
@@ -13841,16 +13942,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="735">
-        <v>-0.7886300420541842</v>
+        <v>-0.6049801027980953</v>
       </c>
       <c r="C39" t="n" s="736">
-        <v>0.30779350562554625</v>
+        <v>0.4058397249567139</v>
       </c>
       <c r="D39" t="n" s="737">
-        <v>0.9359084832537836</v>
+        <v>0.9157771543954192</v>
       </c>
       <c r="E39" t="n" s="738">
-        <v>0.6143840028103329</v>
+        <v>0.42466250756136437</v>
       </c>
     </row>
     <row r="40">
@@ -13858,16 +13959,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="735">
-        <v>-0.882266425716862</v>
+        <v>-0.8825087883641389</v>
       </c>
       <c r="C40" t="n" s="736">
-        <v>0.0</v>
+        <v>-0.24999999999999997</v>
       </c>
       <c r="D40" t="n" s="737">
-        <v>0.882266425716862</v>
+        <v>0.7044968745664897</v>
       </c>
       <c r="E40" t="n" s="738">
-        <v>1.0</v>
+        <v>0.6328125</v>
       </c>
     </row>
     <row r="41">
@@ -13875,16 +13976,16 @@
         <v>21</v>
       </c>
       <c r="B41" t="n" s="735">
-        <v>-0.4766213137467139</v>
+        <v>0.051929318847277625</v>
       </c>
       <c r="C41" t="n" s="736">
-        <v>0.6999999999999998</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="D41" t="n" s="737">
-        <v>0.9781649560449645</v>
+        <v>0.9806845993491808</v>
       </c>
       <c r="E41" t="n" s="738">
-        <v>0.18812040437418742</v>
+        <v>0.04156268221574347</v>
       </c>
     </row>
     <row r="42">
@@ -13892,16 +13993,16 @@
         <v>22</v>
       </c>
       <c r="B42" t="n" s="735">
-        <v>-0.4478580350988156</v>
+        <v>0.09160362801041702</v>
       </c>
       <c r="C42" t="n" s="736">
-        <v>0.7181848464596079</v>
+        <v>0.8406680016960502</v>
       </c>
       <c r="D42" t="n" s="737">
-        <v>0.979689955714192</v>
+        <v>0.9821523234760512</v>
       </c>
       <c r="E42" t="n" s="738">
-        <v>0.17179530490798875</v>
+        <v>0.03605757284515931</v>
       </c>
     </row>
     <row r="43">
@@ -13909,16 +14010,16 @@
         <v>23</v>
       </c>
       <c r="B43" t="n" s="735">
-        <v>-0.9692070969784866</v>
+        <v>-0.9304889882304013</v>
       </c>
       <c r="C43" t="n" s="736">
-        <v>-0.5999999999999999</v>
+        <v>-0.4857142857142857</v>
       </c>
       <c r="D43" t="n" s="737">
-        <v>0.5997499978987657</v>
+        <v>0.5378672009586671</v>
       </c>
       <c r="E43" t="n" s="738">
-        <v>0.2847569798652939</v>
+        <v>0.328723032069971</v>
       </c>
     </row>
     <row r="44">
@@ -13926,16 +14027,16 @@
         <v>24</v>
       </c>
       <c r="B44" t="n" s="735">
-        <v>-0.8572672428979432</v>
+        <v>-0.7678663211110898</v>
       </c>
       <c r="C44" t="n" s="736">
-        <v>0.10259783520851541</v>
+        <v>0.11595420713048969</v>
       </c>
       <c r="D44" t="n" s="737">
-        <v>0.9031154883797928</v>
+        <v>0.847739824198846</v>
       </c>
       <c r="E44" t="n" s="738">
-        <v>0.869597920518565</v>
+        <v>0.826848213385815</v>
       </c>
     </row>
     <row r="45">
@@ -13943,16 +14044,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n" s="735">
-        <v>-0.044168229516178936</v>
+        <v>0.46960840544360194</v>
       </c>
       <c r="C45" t="n" s="736">
-        <v>0.872081599272381</v>
+        <v>0.9276336570439175</v>
       </c>
       <c r="D45" t="n" s="737">
-        <v>0.9914885160185372</v>
+        <v>0.99222023297476</v>
       </c>
       <c r="E45" t="n" s="738">
-        <v>0.0538542177275421</v>
+        <v>0.00766584418747316</v>
       </c>
     </row>
     <row r="46">
@@ -13960,16 +14061,16 @@
         <v>26</v>
       </c>
       <c r="B46" t="n" s="735">
-        <v>-0.9934375159687521</v>
+        <v>-0.973511637634403</v>
       </c>
       <c r="C46" t="n" s="736">
-        <v>-0.8999999999999998</v>
+        <v>-0.7714285714285715</v>
       </c>
       <c r="D46" t="n" s="737">
-        <v>-0.08610194023847699</v>
+        <v>0.10732436824253785</v>
       </c>
       <c r="E46" t="n" s="738">
-        <v>0.03738607346849877</v>
+        <v>0.07239650145772598</v>
       </c>
     </row>
     <row r="47">
@@ -13977,16 +14078,16 @@
         <v>27</v>
       </c>
       <c r="B47" t="n" s="735">
-        <v>-0.9549665265550455</v>
+        <v>-0.8980362706331119</v>
       </c>
       <c r="C47" t="n" s="736">
-        <v>-0.4616902584383194</v>
+        <v>-0.3188740696088467</v>
       </c>
       <c r="D47" t="n" s="737">
-        <v>0.7096341537358801</v>
+        <v>0.6647029165798088</v>
       </c>
       <c r="E47" t="n" s="738">
-        <v>0.43376615616902797</v>
+        <v>0.537900560470205</v>
       </c>
     </row>
     <row r="48">
@@ -13994,16 +14095,16 @@
         <v>28</v>
       </c>
       <c r="B48" t="n" s="735">
-        <v>-0.9983972054945205</v>
+        <v>-0.9749575534452039</v>
       </c>
       <c r="C48" t="n" s="736">
-        <v>-0.9746794344808964</v>
+        <v>-0.7826908981308054</v>
       </c>
       <c r="D48" t="n" s="737">
-        <v>-0.659748629351574</v>
+        <v>0.07914064983097746</v>
       </c>
       <c r="E48" t="n" s="738">
-        <v>0.004818230468198537</v>
+        <v>0.06570384807158909</v>
       </c>
     </row>
     <row r="49">
@@ -14011,16 +14112,16 @@
         <v>29</v>
       </c>
       <c r="B49" t="n" s="735">
-        <v>-0.8879658350986727</v>
+        <v>-0.8064805191149239</v>
       </c>
       <c r="C49" t="n" s="736">
-        <v>-0.026315789473684216</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="D49" t="n" s="737">
-        <v>0.8762960732003406</v>
+        <v>0.81652219328697</v>
       </c>
       <c r="E49" t="n" s="738">
-        <v>0.9664975638949244</v>
+        <v>0.9779427666395277</v>
       </c>
     </row>
     <row r="50">
@@ -14028,16 +14129,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="n" s="735">
-        <v>-0.8267418217592714</v>
+        <v>-0.6647029165798087</v>
       </c>
       <c r="C50" t="n" s="736">
-        <v>0.20519567041703082</v>
+        <v>0.3188740696088467</v>
       </c>
       <c r="D50" t="n" s="737">
-        <v>0.9207686679474756</v>
+        <v>0.898036270633112</v>
       </c>
       <c r="E50" t="n" s="738">
-        <v>0.7405819415910722</v>
+        <v>0.537900560470205</v>
       </c>
     </row>
     <row r="51">
@@ -14052,7 +14153,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="742">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54">
@@ -14077,7 +14178,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="757">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="B55" t="n" s="758">
         <v>-0.43947638936464706</v>
@@ -14097,7 +14198,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="757">
-        <v>1.3875250646034103</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B56" t="n" s="758">
         <v>1.2745279552051365</v>
@@ -14117,67 +14218,82 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="757">
-        <v>6.6027005735701705</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B57" t="n" s="758">
-        <v>-0.19461194636708312</v>
+        <v>0.13052634609611735</v>
       </c>
       <c r="C57" t="n" s="759">
-        <v>0.0020687155690903847</v>
+        <v>0.3991938673511699</v>
       </c>
       <c r="D57" t="n" s="760">
-        <v>-0.41039697568847644</v>
+        <v>0.5868961120264211</v>
       </c>
       <c r="E57" t="n" s="761">
-        <v>-0.05982173039386193</v>
+        <v>0.3454562466271757</v>
       </c>
       <c r="F57" t="n" s="762">
-        <v>-0.42994125574280845</v>
+        <v>-0.11852834836594606</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="757">
-        <v>1.3875250646034103</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B58" t="n" s="758">
-        <v>-0.016003757563636895</v>
+        <v>-0.19461194636708312</v>
       </c>
       <c r="C58" t="n" s="759">
-        <v>-0.6310088518604511</v>
+        <v>0.0020687155690903847</v>
       </c>
       <c r="D58" t="n" s="760">
-        <v>-0.8424638447411447</v>
+        <v>-0.41039697568847644</v>
       </c>
       <c r="E58" t="n" s="761">
-        <v>0.49281785313896265</v>
+        <v>-0.05982173039386193</v>
       </c>
       <c r="F58" t="n" s="762">
-        <v>1.293694677289596</v>
+        <v>-0.42994125574280845</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="757">
-        <v>-2.595256584071593</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B59" t="n" s="758">
+        <v>-0.016003757563636895</v>
+      </c>
+      <c r="C59" t="n" s="759">
+        <v>-0.6310088518604511</v>
+      </c>
+      <c r="D59" t="n" s="760">
+        <v>-0.8424638447411447</v>
+      </c>
+      <c r="E59" t="n" s="761">
+        <v>0.49281785313896265</v>
+      </c>
+      <c r="F59" t="n" s="762">
+        <v>1.293694677289596</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="757">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B60" t="n" s="758">
         <v>1.3837694218399965</v>
       </c>
-      <c r="C59" t="n" s="759">
+      <c r="C60" t="n" s="759">
         <v>3.1382402906974827</v>
       </c>
-      <c r="D59" t="n" s="760">
+      <c r="D60" t="n" s="760">
         <v>0.7141732488095422</v>
       </c>
-      <c r="E59" t="n" s="761">
+      <c r="E60" t="n" s="761">
         <v>-0.1950989718859835</v>
       </c>
-      <c r="F59" t="n" s="762">
+      <c r="F60" t="n" s="762">
         <v>-0.5947940389283171</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -14186,188 +14302,158 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="766">
-        <v>63</v>
+      <c r="A62" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="780">
+      <c r="A63" t="s" s="766">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="780">
         <v>33</v>
       </c>
-      <c r="B63" t="s" s="780">
+      <c r="B64" t="s" s="780">
         <v>37</v>
       </c>
-      <c r="C63" t="s" s="780">
+      <c r="C64" t="s" s="780">
         <v>38</v>
       </c>
-      <c r="D63" t="s" s="780">
+      <c r="D64" t="s" s="780">
         <v>39</v>
       </c>
-      <c r="E63" t="s" s="780">
+      <c r="E64" t="s" s="780">
         <v>40</v>
       </c>
-      <c r="F63" t="s" s="780">
+      <c r="F64" t="s" s="780">
         <v>3</v>
       </c>
-      <c r="G63" t="s" s="780">
+      <c r="G64" t="s" s="780">
         <v>4</v>
       </c>
-      <c r="H63" t="s" s="780">
+      <c r="H64" t="s" s="780">
         <v>5</v>
       </c>
-      <c r="I63" t="s" s="780">
+      <c r="I64" t="s" s="780">
         <v>6</v>
       </c>
-      <c r="J63" t="s" s="780">
+      <c r="J64" t="s" s="780">
         <v>7</v>
       </c>
-      <c r="K63" t="s" s="780">
+      <c r="K64" t="s" s="780">
         <v>8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n" s="781">
-        <v>10116.0</v>
-      </c>
-      <c r="B64" t="s" s="782">
-        <v>41</v>
-      </c>
-      <c r="C64" t="s" s="783">
-        <v>42</v>
-      </c>
-      <c r="D64" t="s" s="784">
-        <v>45</v>
-      </c>
-      <c r="E64" t="s" s="785">
-        <v>47</v>
-      </c>
-      <c r="F64" t="n" s="786">
-        <v>2.6159320835543496</v>
-      </c>
-      <c r="G64" t="n" s="787">
-        <v>-0.43947638936464706</v>
-      </c>
-      <c r="H64" t="n" s="788">
-        <v>-0.11357294579123278</v>
-      </c>
-      <c r="I64" t="n" s="789">
-        <v>-0.8424638447411447</v>
-      </c>
-      <c r="J64" t="n" s="790">
-        <v>0.2070747279978936</v>
-      </c>
-      <c r="K64" t="n" s="791">
-        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="781">
-        <v>10120.0</v>
+        <v>10116.0</v>
       </c>
       <c r="B65" t="s" s="782">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s" s="783">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s" s="784">
         <v>45</v>
       </c>
       <c r="E65" t="s" s="785">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F65" t="n" s="786">
-        <v>1.3875250646034103</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="G65" t="n" s="787">
-        <v>1.2745279552051365</v>
+        <v>-0.43947638936464706</v>
       </c>
       <c r="H65" t="n" s="788">
-        <v>1.9055652511372148</v>
+        <v>-0.11357294579123278</v>
       </c>
       <c r="I65" t="n" s="789">
-        <v>1.3724895791459666</v>
+        <v>-0.8424638447411447</v>
       </c>
       <c r="J65" t="n" s="790">
-        <v>-0.9288875181075325</v>
+        <v>0.2070747279978936</v>
       </c>
       <c r="K65" t="n" s="791">
-        <v>0.43187671077339407</v>
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="781">
-        <v>10141.0</v>
+        <v>10120.0</v>
       </c>
       <c r="B66" t="s" s="782">
         <v>51</v>
       </c>
       <c r="C66" t="s" s="783">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D66" t="s" s="784">
         <v>45</v>
       </c>
       <c r="E66" t="s" s="785">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F66" t="n" s="786">
-        <v>6.6027005735701705</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="G66" t="n" s="787">
-        <v>-0.19461194636708312</v>
+        <v>1.2745279552051365</v>
       </c>
       <c r="H66" t="n" s="788">
-        <v>0.0020687155690903847</v>
+        <v>1.9055652511372148</v>
       </c>
       <c r="I66" t="n" s="789">
-        <v>-0.41039697568847644</v>
+        <v>1.3724895791459666</v>
       </c>
       <c r="J66" t="n" s="790">
-        <v>-0.05982173039386193</v>
+        <v>-0.9288875181075325</v>
       </c>
       <c r="K66" t="n" s="791">
-        <v>-0.42994125574280845</v>
+        <v>0.43187671077339407</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="781">
-        <v>10145.0</v>
+        <v>10121.0</v>
       </c>
       <c r="B67" t="s" s="782">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s" s="783">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D67" t="s" s="784">
         <v>45</v>
       </c>
       <c r="E67" t="s" s="785">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F67" t="n" s="786">
-        <v>1.3875250646034103</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="G67" t="n" s="787">
-        <v>-0.016003757563636895</v>
+        <v>0.13052634609611735</v>
       </c>
       <c r="H67" t="n" s="788">
-        <v>-0.6310088518604511</v>
+        <v>0.3991938673511699</v>
       </c>
       <c r="I67" t="n" s="789">
-        <v>-0.8424638447411447</v>
+        <v>0.5868961120264211</v>
       </c>
       <c r="J67" t="n" s="790">
-        <v>0.49281785313896265</v>
+        <v>0.3454562466271757</v>
       </c>
       <c r="K67" t="n" s="791">
-        <v>1.293694677289596</v>
+        <v>-0.11852834836594606</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="781">
-        <v>10152.0</v>
+        <v>10141.0</v>
       </c>
       <c r="B68" t="s" s="782">
         <v>51</v>
@@ -14382,21 +14468,91 @@
         <v>57</v>
       </c>
       <c r="F68" t="n" s="786">
-        <v>-2.595256584071593</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="G68" t="n" s="787">
+        <v>-0.19461194636708312</v>
+      </c>
+      <c r="H68" t="n" s="788">
+        <v>0.0020687155690903847</v>
+      </c>
+      <c r="I68" t="n" s="789">
+        <v>-0.41039697568847644</v>
+      </c>
+      <c r="J68" t="n" s="790">
+        <v>-0.05982173039386193</v>
+      </c>
+      <c r="K68" t="n" s="791">
+        <v>-0.42994125574280845</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="781">
+        <v>10145.0</v>
+      </c>
+      <c r="B69" t="s" s="782">
+        <v>41</v>
+      </c>
+      <c r="C69" t="s" s="783">
+        <v>43</v>
+      </c>
+      <c r="D69" t="s" s="784">
+        <v>45</v>
+      </c>
+      <c r="E69" t="s" s="785">
+        <v>47</v>
+      </c>
+      <c r="F69" t="n" s="786">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="G69" t="n" s="787">
+        <v>-0.016003757563636895</v>
+      </c>
+      <c r="H69" t="n" s="788">
+        <v>-0.6310088518604511</v>
+      </c>
+      <c r="I69" t="n" s="789">
+        <v>-0.8424638447411447</v>
+      </c>
+      <c r="J69" t="n" s="790">
+        <v>0.49281785313896265</v>
+      </c>
+      <c r="K69" t="n" s="791">
+        <v>1.293694677289596</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="781">
+        <v>10152.0</v>
+      </c>
+      <c r="B70" t="s" s="782">
+        <v>51</v>
+      </c>
+      <c r="C70" t="s" s="783">
+        <v>56</v>
+      </c>
+      <c r="D70" t="s" s="784">
+        <v>45</v>
+      </c>
+      <c r="E70" t="s" s="785">
+        <v>58</v>
+      </c>
+      <c r="F70" t="n" s="786">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G70" t="n" s="787">
         <v>1.3837694218399965</v>
       </c>
-      <c r="H68" t="n" s="788">
+      <c r="H70" t="n" s="788">
         <v>3.1382402906974827</v>
       </c>
-      <c r="I68" t="n" s="789">
+      <c r="I70" t="n" s="789">
         <v>0.7141732488095422</v>
       </c>
-      <c r="J68" t="n" s="790">
+      <c r="J70" t="n" s="790">
         <v>-0.1950989718859835</v>
       </c>
-      <c r="K68" t="n" s="791">
+      <c r="K70" t="n" s="791">
         <v>-0.5947940389283171</v>
       </c>
     </row>
@@ -14429,7 +14585,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="793">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -14473,22 +14629,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="822">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="823">
-        <v>-0.09999999999999998</v>
+        <v>0.10259783520851541</v>
       </c>
       <c r="D6" t="n" s="824">
-        <v>0.3999999999999999</v>
+        <v>0.5642880936468347</v>
       </c>
       <c r="E6" t="n" s="825">
-        <v>-0.8207826816681233</v>
+        <v>-0.7105263157894738</v>
       </c>
       <c r="F6" t="n" s="826">
-        <v>0.4999999999999999</v>
+        <v>0.41039134083406165</v>
       </c>
       <c r="G6" t="n" s="827">
-        <v>0.5642880936468347</v>
+        <v>0.6578947368421054</v>
       </c>
     </row>
     <row r="7">
@@ -14496,7 +14652,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="822">
-        <v>-0.09999999999999998</v>
+        <v>0.10259783520851541</v>
       </c>
       <c r="C7" t="n" s="823">
         <v>0.9999999999999998</v>
@@ -14519,7 +14675,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="822">
-        <v>0.3999999999999999</v>
+        <v>0.5642880936468347</v>
       </c>
       <c r="C8" t="n" s="823">
         <v>0.7999999999999998</v>
@@ -14542,7 +14698,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="822">
-        <v>-0.8207826816681233</v>
+        <v>-0.7105263157894738</v>
       </c>
       <c r="C9" t="n" s="823">
         <v>0.35909242322980395</v>
@@ -14565,7 +14721,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="822">
-        <v>0.4999999999999999</v>
+        <v>0.41039134083406165</v>
       </c>
       <c r="C10" t="n" s="823">
         <v>-0.19999999999999996</v>
@@ -14588,7 +14744,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="822">
-        <v>0.5642880936468347</v>
+        <v>0.6578947368421054</v>
       </c>
       <c r="C11" t="n" s="823">
         <v>0.20519567041703082</v>
@@ -14646,23 +14802,23 @@
       <c r="A16" t="s" s="841">
         <v>3</v>
       </c>
-      <c r="B16" t="n" s="846">
-        <v>8.21912370089156E7</v>
+      <c r="B16" t="e" s="846">
+        <v>#DIV/0!</v>
       </c>
       <c r="C16" t="n" s="847">
-        <v>-0.17407765595569777</v>
+        <v>0.1786474002526241</v>
       </c>
       <c r="D16" t="n" s="848">
-        <v>0.7559289460184542</v>
+        <v>1.183868405501389</v>
       </c>
       <c r="E16" t="n" s="849">
-        <v>-2.48868406735302</v>
+        <v>-1.748925744204499</v>
       </c>
       <c r="F16" t="n" s="850">
-        <v>0.9999999999999997</v>
+        <v>0.7794837629539569</v>
       </c>
       <c r="G16" t="n" s="851">
-        <v>1.183868405501389</v>
+        <v>1.5130688316720065</v>
       </c>
     </row>
     <row r="17">
@@ -14670,7 +14826,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="846">
-        <v>-0.17407765595569777</v>
+        <v>0.1786474002526241</v>
       </c>
       <c r="C17" t="n" s="847">
         <v>8.21912370089156E7</v>
@@ -14693,7 +14849,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="846">
-        <v>0.7559289460184542</v>
+        <v>1.183868405501389</v>
       </c>
       <c r="C18" t="n" s="847">
         <v>2.309401076758501</v>
@@ -14716,7 +14872,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="846">
-        <v>-2.48868406735302</v>
+        <v>-1.748925744204499</v>
       </c>
       <c r="C19" t="n" s="847">
         <v>0.6664148567741458</v>
@@ -14739,7 +14895,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="846">
-        <v>0.9999999999999997</v>
+        <v>0.7794837629539569</v>
       </c>
       <c r="C20" t="n" s="847">
         <v>-0.3535533905932737</v>
@@ -14762,7 +14918,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="846">
-        <v>1.183868405501389</v>
+        <v>1.5130688316720065</v>
       </c>
       <c r="C21" t="n" s="847">
         <v>0.3631365196012814</v>
@@ -14821,7 +14977,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n" s="870">
-        <v>3.971862410081728E-24</v>
+        <v>-0.0</v>
       </c>
       <c r="C26" t="n" s="871">
         <v>1.0</v>
@@ -14844,7 +15000,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="870">
-        <v>0.8728885715695383</v>
+        <v>0.869597920518565</v>
       </c>
       <c r="C27" t="n" s="871">
         <v>3.971862410081728E-24</v>
@@ -14867,7 +15023,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="870">
-        <v>0.504631575468691</v>
+        <v>0.32172333582430024</v>
       </c>
       <c r="C28" t="n" s="871">
         <v>0.10408803866182799</v>
@@ -14890,7 +15046,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="870">
-        <v>0.08858700531354392</v>
+        <v>0.17861891923981463</v>
       </c>
       <c r="C29" t="n" s="871">
         <v>0.5528147466433505</v>
@@ -14913,7 +15069,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="870">
-        <v>0.3910022189557706</v>
+        <v>0.49253578170279755</v>
       </c>
       <c r="C30" t="n" s="871">
         <v>0.7470600781046621</v>
@@ -14936,7 +15092,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="870">
-        <v>0.32172333582430024</v>
+        <v>0.2274702165738092</v>
       </c>
       <c r="C31" t="n" s="871">
         <v>0.7405819415910722</v>
@@ -14989,16 +15145,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="894">
-        <v>-0.9026303779841117</v>
+        <v>-0.8572672428979432</v>
       </c>
       <c r="C36" t="n" s="895">
-        <v>-0.09999999999999998</v>
+        <v>0.10259783520851541</v>
       </c>
       <c r="D36" t="n" s="896">
-        <v>0.8579614871871993</v>
+        <v>0.9031154883797928</v>
       </c>
       <c r="E36" t="n" s="897">
-        <v>0.8728885715695383</v>
+        <v>0.869597920518565</v>
       </c>
     </row>
     <row r="37">
@@ -15006,16 +15162,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="894">
-        <v>-0.7452809804150962</v>
+        <v>-0.6332368352557238</v>
       </c>
       <c r="C37" t="n" s="895">
-        <v>0.3999999999999999</v>
+        <v>0.5642880936468347</v>
       </c>
       <c r="D37" t="n" s="896">
-        <v>0.9477863836858218</v>
+        <v>0.965752354009387</v>
       </c>
       <c r="E37" t="n" s="897">
-        <v>0.504631575468691</v>
+        <v>0.32172333582430024</v>
       </c>
     </row>
     <row r="38">
@@ -15023,16 +15179,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="894">
-        <v>-0.987762139220087</v>
+        <v>-0.979051369863431</v>
       </c>
       <c r="C38" t="n" s="895">
-        <v>-0.8207826816681233</v>
+        <v>-0.7105263157894738</v>
       </c>
       <c r="D38" t="n" s="896">
-        <v>0.2228875178375117</v>
+        <v>0.4602731671838977</v>
       </c>
       <c r="E38" t="n" s="897">
-        <v>0.08858700531354392</v>
+        <v>0.17861891923981463</v>
       </c>
     </row>
     <row r="39">
@@ -15040,16 +15196,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="894">
-        <v>-0.6840027615024981</v>
+        <v>-0.7397024980742459</v>
       </c>
       <c r="C39" t="n" s="895">
-        <v>0.4999999999999999</v>
+        <v>0.41039134083406165</v>
       </c>
       <c r="D39" t="n" s="896">
-        <v>0.9591524318388241</v>
+        <v>0.9490360220388958</v>
       </c>
       <c r="E39" t="n" s="897">
-        <v>0.3910022189557706</v>
+        <v>0.49253578170279755</v>
       </c>
     </row>
     <row r="40">
@@ -15057,16 +15213,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="894">
-        <v>-0.6332368352557238</v>
+        <v>-0.5347765600595688</v>
       </c>
       <c r="C40" t="n" s="895">
-        <v>0.5642880936468347</v>
+        <v>0.6578947368421054</v>
       </c>
       <c r="D40" t="n" s="896">
-        <v>0.965752354009387</v>
+        <v>0.974515125394985</v>
       </c>
       <c r="E40" t="n" s="897">
-        <v>0.32172333582430024</v>
+        <v>0.2274702165738092</v>
       </c>
     </row>
     <row r="41">
@@ -15251,7 +15407,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="901">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54">
@@ -15276,7 +15432,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="916">
-        <v>-0.8141377199519093</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="B55" t="n" s="917">
         <v>-0.12829509018000756</v>
@@ -15296,7 +15452,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="916">
-        <v>7.321874553929193</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B56" t="n" s="917">
         <v>-1.3842690895299066</v>
@@ -15316,7 +15472,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="916">
-        <v>3.663979512143924</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="B57" t="n" s="917">
         <v>-0.11778394501291262</v>
@@ -15336,7 +15492,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="916">
-        <v>-0.46974270057223944</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="B58" t="n" s="917">
         <v>0.03228391342182646</v>
@@ -15356,7 +15512,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="916">
-        <v>6.779366035646001</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B59" t="n" s="917">
         <v>0.5685005755749124</v>
@@ -15386,7 +15542,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="925">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63">
@@ -15441,7 +15597,7 @@
         <v>47</v>
       </c>
       <c r="F64" t="n" s="945">
-        <v>-0.8141377199519093</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="G64" t="n" s="946">
         <v>-0.12829509018000756</v>
@@ -15476,7 +15632,7 @@
         <v>47</v>
       </c>
       <c r="F65" t="n" s="945">
-        <v>7.321874553929193</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="G65" t="n" s="946">
         <v>-1.3842690895299066</v>
@@ -15511,7 +15667,7 @@
         <v>47</v>
       </c>
       <c r="F66" t="n" s="945">
-        <v>3.663979512143924</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="G66" t="n" s="946">
         <v>-0.11778394501291262</v>
@@ -15546,7 +15702,7 @@
         <v>47</v>
       </c>
       <c r="F67" t="n" s="945">
-        <v>-0.46974270057223944</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="G67" t="n" s="946">
         <v>0.03228391342182646</v>
@@ -15581,7 +15737,7 @@
         <v>47</v>
       </c>
       <c r="F68" t="n" s="945">
-        <v>6.779366035646001</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="G68" t="n" s="946">
         <v>0.5685005755749124</v>
@@ -15628,7 +15784,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="952">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -16234,7 +16390,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="1060">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54">
@@ -16259,7 +16415,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="1075">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="B55" t="n" s="1076">
         <v>-0.43947638936464706</v>
@@ -16279,7 +16435,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="1075">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B56" t="n" s="1076">
         <v>-0.016003757563636895</v>
@@ -16309,7 +16465,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="1084">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
@@ -16364,7 +16520,7 @@
         <v>47</v>
       </c>
       <c r="F61" t="n" s="1104">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="G61" t="n" s="1105">
         <v>-0.43947638936464706</v>
@@ -16399,7 +16555,7 @@
         <v>47</v>
       </c>
       <c r="F62" t="n" s="1104">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="G62" t="n" s="1105">
         <v>-0.016003757563636895</v>
@@ -16446,7 +16602,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1111">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -16493,19 +16649,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="1141">
-        <v>-0.313275750262722</v>
+        <v>-0.3113828280974474</v>
       </c>
       <c r="D6" t="n" s="1142">
-        <v>-0.14458880781356398</v>
+        <v>-0.17964393928698885</v>
       </c>
       <c r="E6" t="n" s="1143">
-        <v>-0.12049067317796999</v>
+        <v>-0.059881313095662955</v>
       </c>
       <c r="F6" t="n" s="1144">
-        <v>0.5548780487804879</v>
+        <v>0.442432367978527</v>
       </c>
       <c r="G6" t="n" s="1145">
-        <v>0.38651034126196293</v>
+        <v>0.48174314106586325</v>
       </c>
     </row>
     <row r="7">
@@ -16513,7 +16669,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="1140">
-        <v>-0.313275750262722</v>
+        <v>-0.3113828280974474</v>
       </c>
       <c r="C7" t="n" s="1141">
         <v>1.0</v>
@@ -16536,7 +16692,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="1140">
-        <v>-0.14458880781356398</v>
+        <v>-0.17964393928698885</v>
       </c>
       <c r="C8" t="n" s="1141">
         <v>0.904761904761905</v>
@@ -16559,7 +16715,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="1140">
-        <v>-0.12049067317796999</v>
+        <v>-0.059881313095662955</v>
       </c>
       <c r="C9" t="n" s="1141">
         <v>0.4761904761904763</v>
@@ -16582,7 +16738,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="1140">
-        <v>0.5548780487804879</v>
+        <v>0.442432367978527</v>
       </c>
       <c r="C10" t="n" s="1141">
         <v>-0.6626987024788349</v>
@@ -16605,7 +16761,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="1140">
-        <v>0.38651034126196293</v>
+        <v>0.48174314106586325</v>
       </c>
       <c r="C11" t="n" s="1141">
         <v>0.484928644968872</v>
@@ -16667,19 +16823,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C16" t="n" s="1165">
-        <v>-0.8080407250037891</v>
+        <v>-0.8026322641541677</v>
       </c>
       <c r="D16" t="n" s="1166">
-        <v>-0.35792999176313617</v>
+        <v>-0.447313009438165</v>
       </c>
       <c r="E16" t="n" s="1167">
-        <v>-0.2973067081772048</v>
+        <v>-0.14694234966163547</v>
       </c>
       <c r="F16" t="n" s="1168">
-        <v>1.63374961120214</v>
+        <v>1.2084425552976084</v>
       </c>
       <c r="G16" t="n" s="1169">
-        <v>1.026529805149473</v>
+        <v>1.3465800412044222</v>
       </c>
     </row>
     <row r="17">
@@ -16687,7 +16843,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="1164">
-        <v>-0.8080407250037891</v>
+        <v>-0.8026322641541677</v>
       </c>
       <c r="C17" t="e" s="1165">
         <v>#DIV/0!</v>
@@ -16710,7 +16866,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="1164">
-        <v>-0.35792999176313617</v>
+        <v>-0.447313009438165</v>
       </c>
       <c r="C18" t="n" s="1165">
         <v>5.2033642962990845</v>
@@ -16733,7 +16889,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="1164">
-        <v>-0.2973067081772048</v>
+        <v>-0.14694234966163547</v>
       </c>
       <c r="C19" t="n" s="1165">
         <v>1.3264730648561458</v>
@@ -16756,7 +16912,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="1164">
-        <v>1.63374961120214</v>
+        <v>1.2084425552976084</v>
       </c>
       <c r="C20" t="n" s="1165">
         <v>-2.1675841197947148</v>
@@ -16779,7 +16935,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="1164">
-        <v>1.026529805149473</v>
+        <v>1.3465800412044222</v>
       </c>
       <c r="C21" t="n" s="1165">
         <v>1.35821015287389</v>
@@ -16861,7 +17017,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="1188">
-        <v>0.44990820732344394</v>
+        <v>0.452798757426337</v>
       </c>
       <c r="C27" t="n" s="1189">
         <v>-0.0</v>
@@ -16884,7 +17040,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="1188">
-        <v>0.7326507408997529</v>
+        <v>0.6703442772469387</v>
       </c>
       <c r="C28" t="n" s="1189">
         <v>0.002008275505429454</v>
@@ -16907,7 +17063,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="1188">
-        <v>0.7762570690924104</v>
+        <v>0.8879906501125185</v>
       </c>
       <c r="C29" t="n" s="1189">
         <v>0.232935534650098</v>
@@ -16930,7 +17086,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="1188">
-        <v>0.15343007834316655</v>
+        <v>0.27233779141042763</v>
       </c>
       <c r="C30" t="n" s="1189">
         <v>0.07330582330837655</v>
@@ -16953,7 +17109,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="1188">
-        <v>0.3442344815964822</v>
+        <v>0.2267532471372715</v>
       </c>
       <c r="C31" t="n" s="1189">
         <v>0.2232451255701966</v>
@@ -17006,16 +17162,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="1212">
-        <v>-0.8338667961293521</v>
+        <v>-0.833226628841592</v>
       </c>
       <c r="C36" t="n" s="1213">
-        <v>-0.313275750262722</v>
+        <v>-0.3113828280974474</v>
       </c>
       <c r="D36" t="n" s="1214">
-        <v>0.5022786835558004</v>
+        <v>0.5038453928289715</v>
       </c>
       <c r="E36" t="n" s="1215">
-        <v>0.44990820732344394</v>
+        <v>0.452798757426337</v>
       </c>
     </row>
     <row r="37">
@@ -17023,16 +17179,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="1212">
-        <v>-0.7707333921817028</v>
+        <v>-0.7849498880933404</v>
       </c>
       <c r="C37" t="n" s="1213">
-        <v>-0.14458880781356398</v>
+        <v>-0.17964393928698885</v>
       </c>
       <c r="D37" t="n" s="1214">
-        <v>0.6236237880243608</v>
+        <v>0.6011256132415749</v>
       </c>
       <c r="E37" t="n" s="1215">
-        <v>0.7326507408997529</v>
+        <v>0.6703442772469387</v>
       </c>
     </row>
     <row r="38">
@@ -17040,16 +17196,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="1212">
-        <v>-0.7605849811126535</v>
+        <v>-0.7335987649918554</v>
       </c>
       <c r="C38" t="n" s="1213">
-        <v>-0.12049067317796999</v>
+        <v>-0.059881313095662955</v>
       </c>
       <c r="D38" t="n" s="1214">
-        <v>0.6383853291102254</v>
+        <v>0.67319839307475</v>
       </c>
       <c r="E38" t="n" s="1215">
-        <v>0.7762570690924104</v>
+        <v>0.8879906501125185</v>
       </c>
     </row>
     <row r="39">
@@ -17057,16 +17213,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="1212">
-        <v>-0.2459716488886568</v>
+        <v>-0.38103628623803476</v>
       </c>
       <c r="C39" t="n" s="1213">
-        <v>0.5548780487804879</v>
+        <v>0.442432367978527</v>
       </c>
       <c r="D39" t="n" s="1214">
-        <v>0.9054954350684372</v>
+        <v>0.8744712854714511</v>
       </c>
       <c r="E39" t="n" s="1215">
-        <v>0.15343007834316655</v>
+        <v>0.27233779141042763</v>
       </c>
     </row>
     <row r="40">
@@ -17074,16 +17230,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="1212">
-        <v>-0.43725477226717385</v>
+        <v>-0.337502071044971</v>
       </c>
       <c r="C40" t="n" s="1213">
-        <v>0.38651034126196293</v>
+        <v>0.48174314106586325</v>
       </c>
       <c r="D40" t="n" s="1214">
-        <v>0.8576034896591318</v>
+        <v>0.8857345620191307</v>
       </c>
       <c r="E40" t="n" s="1215">
-        <v>0.3442344815964822</v>
+        <v>0.2267532471372715</v>
       </c>
     </row>
     <row r="41">
@@ -17268,7 +17424,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="1219">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
@@ -17293,7 +17449,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="1234">
-        <v>-0.46974270057223855</v>
+        <v>2.219439428362677</v>
       </c>
       <c r="B55" t="n" s="1235">
         <v>0.703122893490451</v>
@@ -17313,7 +17469,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="1234">
-        <v>2.797689028281252</v>
+        <v>4.683705113859222</v>
       </c>
       <c r="B56" t="n" s="1235">
         <v>0.6825024983778668</v>
@@ -17333,7 +17489,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="1234">
-        <v>7.3218745539291925</v>
+        <v>4.773535959183306</v>
       </c>
       <c r="B57" t="n" s="1235">
         <v>-0.739050752349173</v>
@@ -17353,7 +17509,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="1234">
-        <v>7.316986477963063</v>
+        <v>5.2020388158867235</v>
       </c>
       <c r="B58" t="n" s="1235">
         <v>1.332166901264101</v>
@@ -17373,7 +17529,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="1234">
-        <v>7.3218745539291925</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="B59" t="n" s="1235">
         <v>0.42485437939802007</v>
@@ -17393,7 +17549,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="1234">
-        <v>2.797689028281252</v>
+        <v>5.455703844859729</v>
       </c>
       <c r="B60" t="n" s="1235">
         <v>-0.051365907742741024</v>
@@ -17413,7 +17569,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n" s="1234">
-        <v>-1.6574667686308642</v>
+        <v>2.2194394283626773</v>
       </c>
       <c r="B61" t="n" s="1235">
         <v>0.24078051736168585</v>
@@ -17433,7 +17589,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="1234">
-        <v>10.249590604752395</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="B62" t="n" s="1235">
         <v>0.20490388741018775</v>
@@ -17463,7 +17619,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="1243">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
@@ -17515,10 +17671,10 @@
         <v>46</v>
       </c>
       <c r="E67" t="s" s="1262">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F67" t="n" s="1263">
-        <v>-0.46974270057223855</v>
+        <v>2.219439428362677</v>
       </c>
       <c r="G67" t="n" s="1264">
         <v>0.703122893490451</v>
@@ -17544,16 +17700,16 @@
         <v>51</v>
       </c>
       <c r="C68" t="s" s="1260">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D68" t="s" s="1261">
         <v>46</v>
       </c>
       <c r="E68" t="s" s="1262">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F68" t="n" s="1263">
-        <v>2.797689028281252</v>
+        <v>4.683705113859222</v>
       </c>
       <c r="G68" t="n" s="1264">
         <v>0.6825024983778668</v>
@@ -17579,16 +17735,16 @@
         <v>51</v>
       </c>
       <c r="C69" t="s" s="1260">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D69" t="s" s="1261">
         <v>46</v>
       </c>
       <c r="E69" t="s" s="1262">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F69" t="n" s="1263">
-        <v>7.3218745539291925</v>
+        <v>4.773535959183306</v>
       </c>
       <c r="G69" t="n" s="1264">
         <v>-0.739050752349173</v>
@@ -17614,16 +17770,16 @@
         <v>51</v>
       </c>
       <c r="C70" t="s" s="1260">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s" s="1261">
         <v>46</v>
       </c>
       <c r="E70" t="s" s="1262">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F70" t="n" s="1263">
-        <v>7.316986477963063</v>
+        <v>5.2020388158867235</v>
       </c>
       <c r="G70" t="n" s="1264">
         <v>1.332166901264101</v>
@@ -17655,10 +17811,10 @@
         <v>46</v>
       </c>
       <c r="E71" t="s" s="1262">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" t="n" s="1263">
-        <v>7.3218745539291925</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="G71" t="n" s="1264">
         <v>0.42485437939802007</v>
@@ -17684,16 +17840,16 @@
         <v>51</v>
       </c>
       <c r="C72" t="s" s="1260">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D72" t="s" s="1261">
         <v>46</v>
       </c>
       <c r="E72" t="s" s="1262">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" t="n" s="1263">
-        <v>2.797689028281252</v>
+        <v>5.455703844859729</v>
       </c>
       <c r="G72" t="n" s="1264">
         <v>-0.051365907742741024</v>
@@ -17719,16 +17875,16 @@
         <v>51</v>
       </c>
       <c r="C73" t="s" s="1260">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s" s="1261">
         <v>46</v>
       </c>
       <c r="E73" t="s" s="1262">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" t="n" s="1263">
-        <v>-1.6574667686308642</v>
+        <v>2.2194394283626773</v>
       </c>
       <c r="G73" t="n" s="1264">
         <v>0.24078051736168585</v>
@@ -17754,16 +17910,16 @@
         <v>51</v>
       </c>
       <c r="C74" t="s" s="1260">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D74" t="s" s="1261">
         <v>46</v>
       </c>
       <c r="E74" t="s" s="1262">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F74" t="n" s="1263">
-        <v>10.249590604752395</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="G74" t="n" s="1264">
         <v>0.20490388741018775</v>
@@ -17810,7 +17966,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1270">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -17857,19 +18013,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="1300">
-        <v>-1.0</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="D6" t="n" s="1301">
-        <v>-1.0</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="E6" t="n" s="1302">
-        <v>-0.5</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="F6" t="n" s="1303">
-        <v>0.5</v>
+        <v>0.737864787372622</v>
       </c>
       <c r="G6" t="n" s="1304">
-        <v>0.5</v>
+        <v>-0.10540925533894598</v>
       </c>
     </row>
     <row r="7">
@@ -17877,7 +18033,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="1299">
-        <v>-1.0</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="C7" t="n" s="1300">
         <v>1.0</v>
@@ -17886,13 +18042,13 @@
         <v>1.0</v>
       </c>
       <c r="E7" t="n" s="1302">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="n" s="1303">
-        <v>-0.5</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="G7" t="n" s="1304">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="8">
@@ -17900,7 +18056,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="1299">
-        <v>-1.0</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="C8" t="n" s="1300">
         <v>1.0</v>
@@ -17909,13 +18065,13 @@
         <v>1.0</v>
       </c>
       <c r="E8" t="n" s="1302">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F8" t="n" s="1303">
-        <v>-0.5</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="G8" t="n" s="1304">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="9">
@@ -17923,22 +18079,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="1299">
-        <v>-0.5</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="C9" t="n" s="1300">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D9" t="n" s="1301">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E9" t="n" s="1302">
         <v>1.0</v>
       </c>
       <c r="F9" t="n" s="1303">
-        <v>-1.0</v>
+        <v>-0.8</v>
       </c>
       <c r="G9" t="n" s="1304">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -17946,22 +18102,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="1299">
-        <v>0.5</v>
+        <v>0.737864787372622</v>
       </c>
       <c r="C10" t="n" s="1300">
-        <v>-0.5</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="D10" t="n" s="1301">
-        <v>-0.5</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E10" t="n" s="1302">
-        <v>-1.0</v>
+        <v>-0.8</v>
       </c>
       <c r="F10" t="n" s="1303">
         <v>1.0</v>
       </c>
       <c r="G10" t="n" s="1304">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11">
@@ -17969,19 +18125,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="1299">
-        <v>0.5</v>
+        <v>-0.10540925533894598</v>
       </c>
       <c r="C11" t="n" s="1300">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D11" t="n" s="1301">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E11" t="n" s="1302">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F11" t="n" s="1303">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="G11" t="n" s="1304">
         <v>1.0</v>
@@ -18030,28 +18186,28 @@
       <c r="B16" t="e" s="1323">
         <v>#DIV/0!</v>
       </c>
-      <c r="C16" t="e" s="1324">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" t="e" s="1325">
-        <v>#DIV/0!</v>
+      <c r="C16" t="n" s="1324">
+        <v>-4.242640687119289</v>
+      </c>
+      <c r="D16" t="n" s="1325">
+        <v>-4.242640687119289</v>
       </c>
       <c r="E16" t="n" s="1326">
-        <v>-0.5773502691896258</v>
+        <v>-4.242640687119289</v>
       </c>
       <c r="F16" t="n" s="1327">
-        <v>0.5773502691896258</v>
+        <v>1.5460413650478524</v>
       </c>
       <c r="G16" t="n" s="1328">
-        <v>0.5773502691896258</v>
+        <v>-0.14990633779917228</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1318">
         <v>4</v>
       </c>
-      <c r="B17" t="e" s="1323">
-        <v>#DIV/0!</v>
+      <c r="B17" t="n" s="1323">
+        <v>-4.242640687119289</v>
       </c>
       <c r="C17" t="e" s="1324">
         <v>#DIV/0!</v>
@@ -18060,21 +18216,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E17" t="n" s="1326">
-        <v>0.5773502691896258</v>
+        <v>1.8856180831641276</v>
       </c>
       <c r="F17" t="n" s="1327">
-        <v>-0.5773502691896258</v>
+        <v>-1.0606601717798216</v>
       </c>
       <c r="G17" t="n" s="1328">
-        <v>-0.5773502691896258</v>
+        <v>-0.2886751345948129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1318">
         <v>5</v>
       </c>
-      <c r="B18" t="e" s="1323">
-        <v>#DIV/0!</v>
+      <c r="B18" t="n" s="1323">
+        <v>-4.242640687119289</v>
       </c>
       <c r="C18" t="e" s="1324">
         <v>#DIV/0!</v>
@@ -18083,13 +18239,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E18" t="n" s="1326">
-        <v>0.5773502691896258</v>
+        <v>1.8856180831641276</v>
       </c>
       <c r="F18" t="n" s="1327">
-        <v>-0.5773502691896258</v>
+        <v>-1.0606601717798216</v>
       </c>
       <c r="G18" t="n" s="1328">
-        <v>-0.5773502691896258</v>
+        <v>-0.2886751345948129</v>
       </c>
     </row>
     <row r="19">
@@ -18097,22 +18253,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="1323">
-        <v>-0.5773502691896258</v>
+        <v>-4.242640687119289</v>
       </c>
       <c r="C19" t="n" s="1324">
-        <v>0.5773502691896258</v>
+        <v>1.8856180831641276</v>
       </c>
       <c r="D19" t="n" s="1325">
-        <v>0.5773502691896258</v>
+        <v>1.8856180831641276</v>
       </c>
       <c r="E19" t="e" s="1326">
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" t="e" s="1327">
-        <v>#DIV/0!</v>
+      <c r="F19" t="n" s="1327">
+        <v>-1.8856180831641276</v>
       </c>
       <c r="G19" t="n" s="1328">
-        <v>0.5773502691896258</v>
+        <v>0.6172133998483678</v>
       </c>
     </row>
     <row r="20">
@@ -18120,22 +18276,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="1323">
-        <v>0.5773502691896258</v>
+        <v>1.5460413650478524</v>
       </c>
       <c r="C20" t="n" s="1324">
-        <v>-0.5773502691896258</v>
+        <v>-1.0606601717798216</v>
       </c>
       <c r="D20" t="n" s="1325">
-        <v>-0.5773502691896258</v>
-      </c>
-      <c r="E20" t="e" s="1326">
-        <v>#DIV/0!</v>
+        <v>-1.0606601717798216</v>
+      </c>
+      <c r="E20" t="n" s="1326">
+        <v>-1.8856180831641276</v>
       </c>
       <c r="F20" t="e" s="1327">
         <v>#DIV/0!</v>
       </c>
       <c r="G20" t="n" s="1328">
-        <v>-0.5773502691896258</v>
+        <v>-0.2886751345948129</v>
       </c>
     </row>
     <row r="21">
@@ -18143,19 +18299,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="1323">
-        <v>0.5773502691896258</v>
+        <v>-0.14990633779917228</v>
       </c>
       <c r="C21" t="n" s="1324">
-        <v>-0.5773502691896258</v>
+        <v>-0.2886751345948129</v>
       </c>
       <c r="D21" t="n" s="1325">
-        <v>-0.5773502691896258</v>
+        <v>-0.2886751345948129</v>
       </c>
       <c r="E21" t="n" s="1326">
-        <v>0.5773502691896258</v>
+        <v>0.6172133998483678</v>
       </c>
       <c r="F21" t="n" s="1327">
-        <v>-0.5773502691896258</v>
+        <v>-0.2886751345948129</v>
       </c>
       <c r="G21" t="e" s="1328">
         <v>#DIV/0!</v>
@@ -18205,13 +18361,13 @@
         <v>-0.0</v>
       </c>
       <c r="C26" t="n" s="1348">
-        <v>-0.0</v>
+        <v>0.7184338272928054</v>
       </c>
       <c r="D26" t="n" s="1349">
-        <v>-0.0</v>
+        <v>0.7184338272928054</v>
       </c>
       <c r="E26" t="n" s="1350">
-        <v>1.0</v>
+        <v>0.7184338272928054</v>
       </c>
       <c r="F26" t="n" s="1351">
         <v>1.0</v>
@@ -18225,7 +18381,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="1347">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
       <c r="C27" t="n" s="1348">
         <v>-0.0</v>
@@ -18248,7 +18404,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="1347">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
       <c r="C28" t="n" s="1348">
         <v>-0.0</v>
@@ -18271,19 +18427,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="1347">
-        <v>0.6666666666666667</v>
+        <v>0.0513167019494861</v>
       </c>
       <c r="C29" t="n" s="1348">
-        <v>0.6666666666666667</v>
+        <v>0.1999999999999998</v>
       </c>
       <c r="D29" t="n" s="1349">
-        <v>0.6666666666666667</v>
+        <v>0.1999999999999998</v>
       </c>
       <c r="E29" t="n" s="1350">
         <v>-0.0</v>
       </c>
       <c r="F29" t="n" s="1351">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G29" t="n" s="1352">
         <v>1.0</v>
@@ -18294,16 +18450,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="1347">
-        <v>0.6666666666666667</v>
+        <v>0.262135212627378</v>
       </c>
       <c r="C30" t="n" s="1348">
-        <v>0.6666666666666667</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="D30" t="n" s="1349">
-        <v>0.6666666666666667</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E30" t="n" s="1350">
-        <v>-0.0</v>
+        <v>0.1999999999999998</v>
       </c>
       <c r="F30" t="n" s="1351">
         <v>-0.0</v>
@@ -18317,19 +18473,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="1347">
-        <v>0.6666666666666667</v>
+        <v>0.8945907446610539</v>
       </c>
       <c r="C31" t="n" s="1348">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D31" t="n" s="1349">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E31" t="n" s="1350">
-        <v>0.6666666666666667</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="F31" t="n" s="1351">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="G31" t="n" s="1352">
         <v>-0.0</v>
@@ -18370,14 +18526,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9989554781982825</v>
       </c>
       <c r="C36" t="n" s="1372">
-        <v>-1.0</v>
-      </c>
-      <c r="D36" s="1373"/>
+        <v>-0.9486832980505139</v>
+      </c>
+      <c r="D36" t="n" s="1373">
+        <v>0.14058029887361093</v>
+      </c>
       <c r="E36" t="n" s="1374">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
     </row>
     <row r="37">
@@ -18385,14 +18543,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9989554781982825</v>
       </c>
       <c r="C37" t="n" s="1372">
-        <v>-1.0</v>
-      </c>
-      <c r="D37" s="1373"/>
+        <v>-0.9486832980505139</v>
+      </c>
+      <c r="D37" t="n" s="1373">
+        <v>0.14058029887361093</v>
+      </c>
       <c r="E37" t="n" s="1374">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
     </row>
     <row r="38">
@@ -18400,14 +18560,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9989554781982825</v>
       </c>
       <c r="C38" t="n" s="1372">
-        <v>-0.5</v>
-      </c>
-      <c r="D38" s="1373"/>
+        <v>-0.9486832980505139</v>
+      </c>
+      <c r="D38" t="n" s="1373">
+        <v>0.14058029887361093</v>
+      </c>
       <c r="E38" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.0513167019494861</v>
       </c>
     </row>
     <row r="39">
@@ -18415,14 +18577,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.7674886455346195</v>
       </c>
       <c r="C39" t="n" s="1372">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="1373"/>
+        <v>0.737864787372622</v>
+      </c>
+      <c r="D39" t="n" s="1373">
+        <v>0.9940318684341379</v>
+      </c>
       <c r="E39" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.262135212627378</v>
       </c>
     </row>
     <row r="40">
@@ -18430,14 +18594,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9683910836703942</v>
       </c>
       <c r="C40" t="n" s="1372">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="1373"/>
+        <v>-0.10540925533894598</v>
+      </c>
+      <c r="D40" t="n" s="1373">
+        <v>0.9521363560613599</v>
+      </c>
       <c r="E40" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.8945907446610539</v>
       </c>
     </row>
     <row r="41">
@@ -18458,14 +18624,16 @@
         <v>22</v>
       </c>
       <c r="B42" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.6969534452993221</v>
       </c>
       <c r="C42" t="n" s="1372">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="1373"/>
+        <v>0.8</v>
+      </c>
+      <c r="D42" t="n" s="1373">
+        <v>0.9956002504665856</v>
+      </c>
       <c r="E42" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.1999999999999998</v>
       </c>
     </row>
     <row r="43">
@@ -18473,14 +18641,16 @@
         <v>23</v>
       </c>
       <c r="B43" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9901277107996943</v>
       </c>
       <c r="C43" t="n" s="1372">
-        <v>-0.5</v>
-      </c>
-      <c r="D43" s="1373"/>
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="D43" t="n" s="1373">
+        <v>0.852932564694718</v>
+      </c>
       <c r="E43" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -18488,14 +18658,16 @@
         <v>24</v>
       </c>
       <c r="B44" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9738887106325422</v>
       </c>
       <c r="C44" t="n" s="1372">
-        <v>-0.5</v>
-      </c>
-      <c r="D44" s="1373"/>
+        <v>-0.2</v>
+      </c>
+      <c r="D44" t="n" s="1373">
+        <v>0.9421929837536436</v>
+      </c>
       <c r="E44" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45">
@@ -18503,14 +18675,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.6969534452993221</v>
       </c>
       <c r="C45" t="n" s="1372">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="1373"/>
+        <v>0.8</v>
+      </c>
+      <c r="D45" t="n" s="1373">
+        <v>0.9956002504665856</v>
+      </c>
       <c r="E45" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.1999999999999998</v>
       </c>
     </row>
     <row r="46">
@@ -18518,14 +18692,16 @@
         <v>26</v>
       </c>
       <c r="B46" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9901277107996943</v>
       </c>
       <c r="C46" t="n" s="1372">
-        <v>-0.5</v>
-      </c>
-      <c r="D46" s="1373"/>
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="D46" t="n" s="1373">
+        <v>0.852932564694718</v>
+      </c>
       <c r="E46" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -18533,14 +18709,16 @@
         <v>27</v>
       </c>
       <c r="B47" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9738887106325422</v>
       </c>
       <c r="C47" t="n" s="1372">
-        <v>-0.5</v>
-      </c>
-      <c r="D47" s="1373"/>
+        <v>-0.2</v>
+      </c>
+      <c r="D47" t="n" s="1373">
+        <v>0.9421929837536436</v>
+      </c>
       <c r="E47" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48">
@@ -18548,14 +18726,16 @@
         <v>28</v>
       </c>
       <c r="B48" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9956002504665856</v>
       </c>
       <c r="C48" t="n" s="1372">
-        <v>-1.0</v>
-      </c>
-      <c r="D48" s="1373"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D48" t="n" s="1373">
+        <v>0.6969534452993222</v>
+      </c>
       <c r="E48" t="n" s="1374">
-        <v>-0.0</v>
+        <v>0.1999999999999998</v>
       </c>
     </row>
     <row r="49">
@@ -18563,14 +18743,16 @@
         <v>29</v>
       </c>
       <c r="B49" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9114990786715159</v>
       </c>
       <c r="C49" t="n" s="1372">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="1373"/>
+        <v>0.4</v>
+      </c>
+      <c r="D49" t="n" s="1373">
+        <v>0.9831355366777352</v>
+      </c>
       <c r="E49" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.5999999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -18578,14 +18760,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="n" s="1371">
-        <v>-1.0</v>
+        <v>-0.9738887106325422</v>
       </c>
       <c r="C50" t="n" s="1372">
-        <v>-0.5</v>
-      </c>
-      <c r="D50" s="1373"/>
+        <v>-0.2</v>
+      </c>
+      <c r="D50" t="n" s="1373">
+        <v>0.9421929837536436</v>
+      </c>
       <c r="E50" t="n" s="1374">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51">
@@ -18600,7 +18784,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="1378">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -18625,7 +18809,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="1393">
-        <v>1.3875250646034103</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B55" t="n" s="1394">
         <v>1.2745279552051365</v>
@@ -18645,47 +18829,62 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="1393">
-        <v>6.6027005735701705</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B56" t="n" s="1394">
-        <v>-0.19461194636708312</v>
+        <v>0.13052634609611735</v>
       </c>
       <c r="C56" t="n" s="1395">
-        <v>0.0020687155690903847</v>
+        <v>0.3991938673511699</v>
       </c>
       <c r="D56" t="n" s="1396">
-        <v>-0.41039697568847644</v>
+        <v>0.5868961120264211</v>
       </c>
       <c r="E56" t="n" s="1397">
-        <v>-0.05982173039386193</v>
+        <v>0.3454562466271757</v>
       </c>
       <c r="F56" t="n" s="1398">
-        <v>-0.42994125574280845</v>
+        <v>-0.11852834836594606</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="1393">
-        <v>-2.595256584071593</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B57" t="n" s="1394">
+        <v>-0.19461194636708312</v>
+      </c>
+      <c r="C57" t="n" s="1395">
+        <v>0.0020687155690903847</v>
+      </c>
+      <c r="D57" t="n" s="1396">
+        <v>-0.41039697568847644</v>
+      </c>
+      <c r="E57" t="n" s="1397">
+        <v>-0.05982173039386193</v>
+      </c>
+      <c r="F57" t="n" s="1398">
+        <v>-0.42994125574280845</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="1393">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B58" t="n" s="1394">
         <v>1.3837694218399965</v>
       </c>
-      <c r="C57" t="n" s="1395">
+      <c r="C58" t="n" s="1395">
         <v>3.1382402906974827</v>
       </c>
-      <c r="D57" t="n" s="1396">
+      <c r="D58" t="n" s="1396">
         <v>0.7141732488095422</v>
       </c>
-      <c r="E57" t="n" s="1397">
+      <c r="E58" t="n" s="1397">
         <v>-0.1950989718859835</v>
       </c>
-      <c r="F57" t="n" s="1398">
+      <c r="F58" t="n" s="1398">
         <v>-0.5947940389283171</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -18694,147 +18893,187 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="1402">
-        <v>75</v>
+      <c r="A60" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="1416">
+      <c r="A61" t="s" s="1402">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1416">
         <v>33</v>
       </c>
-      <c r="B61" t="s" s="1416">
+      <c r="B62" t="s" s="1416">
         <v>37</v>
       </c>
-      <c r="C61" t="s" s="1416">
+      <c r="C62" t="s" s="1416">
         <v>38</v>
       </c>
-      <c r="D61" t="s" s="1416">
+      <c r="D62" t="s" s="1416">
         <v>39</v>
       </c>
-      <c r="E61" t="s" s="1416">
+      <c r="E62" t="s" s="1416">
         <v>40</v>
       </c>
-      <c r="F61" t="s" s="1416">
+      <c r="F62" t="s" s="1416">
         <v>3</v>
       </c>
-      <c r="G61" t="s" s="1416">
+      <c r="G62" t="s" s="1416">
         <v>4</v>
       </c>
-      <c r="H61" t="s" s="1416">
+      <c r="H62" t="s" s="1416">
         <v>5</v>
       </c>
-      <c r="I61" t="s" s="1416">
+      <c r="I62" t="s" s="1416">
         <v>6</v>
       </c>
-      <c r="J61" t="s" s="1416">
+      <c r="J62" t="s" s="1416">
         <v>7</v>
       </c>
-      <c r="K61" t="s" s="1416">
+      <c r="K62" t="s" s="1416">
         <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="1417">
-        <v>10120.0</v>
-      </c>
-      <c r="B62" t="s" s="1418">
-        <v>51</v>
-      </c>
-      <c r="C62" t="s" s="1419">
-        <v>52</v>
-      </c>
-      <c r="D62" t="s" s="1420">
-        <v>45</v>
-      </c>
-      <c r="E62" t="s" s="1421">
-        <v>56</v>
-      </c>
-      <c r="F62" t="n" s="1422">
-        <v>1.3875250646034103</v>
-      </c>
-      <c r="G62" t="n" s="1423">
-        <v>1.2745279552051365</v>
-      </c>
-      <c r="H62" t="n" s="1424">
-        <v>1.9055652511372148</v>
-      </c>
-      <c r="I62" t="n" s="1425">
-        <v>1.3724895791459666</v>
-      </c>
-      <c r="J62" t="n" s="1426">
-        <v>-0.9288875181075325</v>
-      </c>
-      <c r="K62" t="n" s="1427">
-        <v>0.43187671077339407</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="1417">
-        <v>10141.0</v>
+        <v>10120.0</v>
       </c>
       <c r="B63" t="s" s="1418">
         <v>51</v>
       </c>
       <c r="C63" t="s" s="1419">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D63" t="s" s="1420">
         <v>45</v>
       </c>
       <c r="E63" t="s" s="1421">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F63" t="n" s="1422">
-        <v>6.6027005735701705</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="G63" t="n" s="1423">
-        <v>-0.19461194636708312</v>
+        <v>1.2745279552051365</v>
       </c>
       <c r="H63" t="n" s="1424">
-        <v>0.0020687155690903847</v>
+        <v>1.9055652511372148</v>
       </c>
       <c r="I63" t="n" s="1425">
-        <v>-0.41039697568847644</v>
+        <v>1.3724895791459666</v>
       </c>
       <c r="J63" t="n" s="1426">
-        <v>-0.05982173039386193</v>
+        <v>-0.9288875181075325</v>
       </c>
       <c r="K63" t="n" s="1427">
-        <v>-0.42994125574280845</v>
+        <v>0.43187671077339407</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="1417">
-        <v>10152.0</v>
+        <v>10121.0</v>
       </c>
       <c r="B64" t="s" s="1418">
         <v>51</v>
       </c>
       <c r="C64" t="s" s="1419">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D64" t="s" s="1420">
         <v>45</v>
       </c>
       <c r="E64" t="s" s="1421">
+        <v>58</v>
+      </c>
+      <c r="F64" t="n" s="1422">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="G64" t="n" s="1423">
+        <v>0.13052634609611735</v>
+      </c>
+      <c r="H64" t="n" s="1424">
+        <v>0.3991938673511699</v>
+      </c>
+      <c r="I64" t="n" s="1425">
+        <v>0.5868961120264211</v>
+      </c>
+      <c r="J64" t="n" s="1426">
+        <v>0.3454562466271757</v>
+      </c>
+      <c r="K64" t="n" s="1427">
+        <v>-0.11852834836594606</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="1417">
+        <v>10141.0</v>
+      </c>
+      <c r="B65" t="s" s="1418">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s" s="1419">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s" s="1420">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s" s="1421">
         <v>57</v>
       </c>
-      <c r="F64" t="n" s="1422">
-        <v>-2.595256584071593</v>
-      </c>
-      <c r="G64" t="n" s="1423">
+      <c r="F65" t="n" s="1422">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="G65" t="n" s="1423">
+        <v>-0.19461194636708312</v>
+      </c>
+      <c r="H65" t="n" s="1424">
+        <v>0.0020687155690903847</v>
+      </c>
+      <c r="I65" t="n" s="1425">
+        <v>-0.41039697568847644</v>
+      </c>
+      <c r="J65" t="n" s="1426">
+        <v>-0.05982173039386193</v>
+      </c>
+      <c r="K65" t="n" s="1427">
+        <v>-0.42994125574280845</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="1417">
+        <v>10152.0</v>
+      </c>
+      <c r="B66" t="s" s="1418">
+        <v>51</v>
+      </c>
+      <c r="C66" t="s" s="1419">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s" s="1420">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s" s="1421">
+        <v>58</v>
+      </c>
+      <c r="F66" t="n" s="1422">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G66" t="n" s="1423">
         <v>1.3837694218399965</v>
       </c>
-      <c r="H64" t="n" s="1424">
+      <c r="H66" t="n" s="1424">
         <v>3.1382402906974827</v>
       </c>
-      <c r="I64" t="n" s="1425">
+      <c r="I66" t="n" s="1425">
         <v>0.7141732488095422</v>
       </c>
-      <c r="J64" t="n" s="1426">
+      <c r="J66" t="n" s="1426">
         <v>-0.1950989718859835</v>
       </c>
-      <c r="K64" t="n" s="1427">
+      <c r="K66" t="n" s="1427">
         <v>-0.5947940389283171</v>
       </c>
     </row>
